--- a/etf_dfs/EWU.xlsx
+++ b/etf_dfs/EWU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWU</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>24.625</v>
       </c>
       <c r="F2">
-        <v>9.303587913513184</v>
+        <v>9.303589820861816</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>25.375</v>
       </c>
       <c r="F3">
-        <v>9.586945533752441</v>
+        <v>9.586943626403809</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -488,7 +494,7 @@
         <v>0.03045685279187826</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>25.125</v>
       </c>
       <c r="F4">
-        <v>9.492489814758301</v>
+        <v>9.492494583129883</v>
       </c>
       <c r="G4">
         <v>1250</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.009852216748768461</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.02850281641551141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>25.375</v>
       </c>
       <c r="F5">
-        <v>9.586945533752441</v>
+        <v>9.586943626403809</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.00995024875621886</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.02015555976393044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>25.75</v>
       </c>
       <c r="F6">
-        <v>9.72862434387207</v>
+        <v>9.728623390197754</v>
       </c>
       <c r="G6">
         <v>16400</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.0147783251231528</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.01661643182854608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>26.125</v>
       </c>
       <c r="F7">
-        <v>10.06033229827881</v>
+        <v>10.06033039093018</v>
       </c>
       <c r="G7">
         <v>400</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.0145631067961165</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.01446256139892996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>26.625</v>
       </c>
       <c r="F8">
-        <v>10.25287246704102</v>
+        <v>10.25287437438965</v>
       </c>
       <c r="G8">
         <v>6600</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.01913875598086134</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.0132618098907277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.05633802816901401</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02031608365408018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.04888888888888898</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.02151579229560103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.04661016949152552</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02160623148371074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.05263157894736847</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.03205929556881797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>30.25</v>
       </c>
       <c r="F13">
-        <v>11.70808792114258</v>
+        <v>11.70808696746826</v>
       </c>
       <c r="G13">
         <v>550</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.03418803418803429</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.03081172178976279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>30.625</v>
       </c>
       <c r="F14">
-        <v>11.85322666168213</v>
+        <v>11.8532247543335</v>
       </c>
       <c r="G14">
         <v>7300</v>
@@ -774,13 +810,16 @@
         <v>0.0123966942148761</v>
       </c>
       <c r="I14">
-        <v>0.2436548223350254</v>
+        <v>0.02944556522796468</v>
       </c>
       <c r="J14">
         <v>0.2436548223350254</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.2436548223350254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>31.25</v>
       </c>
       <c r="F15">
-        <v>12.09513092041016</v>
+        <v>12.09512996673584</v>
       </c>
       <c r="G15">
         <v>1050</v>
@@ -806,13 +845,16 @@
         <v>0.02040816326530615</v>
       </c>
       <c r="I15">
-        <v>0.2315270935960592</v>
+        <v>0.02819579932109212</v>
       </c>
       <c r="J15">
         <v>0.2315270935960592</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.2315270935960592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="F16">
-        <v>12.7724552154541</v>
+        <v>12.77245616912842</v>
       </c>
       <c r="G16">
         <v>750</v>
@@ -838,13 +880,16 @@
         <v>0.05600000000000005</v>
       </c>
       <c r="I16">
-        <v>0.3134328358208955</v>
+        <v>0.02885055123682726</v>
       </c>
       <c r="J16">
         <v>0.3134328358208955</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.3134328358208955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>33.5</v>
       </c>
       <c r="F17">
-        <v>12.96598243713379</v>
+        <v>12.96597766876221</v>
       </c>
       <c r="G17">
         <v>800</v>
@@ -870,13 +915,16 @@
         <v>0.01515151515151514</v>
       </c>
       <c r="I17">
-        <v>0.3201970443349753</v>
+        <v>0.02784962201322117</v>
       </c>
       <c r="J17">
         <v>0.3201970443349753</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.3201970443349753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>35.25</v>
       </c>
       <c r="F18">
-        <v>13.64330291748047</v>
+        <v>13.64330673217773</v>
       </c>
       <c r="G18">
         <v>1350</v>
@@ -902,13 +950,16 @@
         <v>0.05223880597014929</v>
       </c>
       <c r="I18">
-        <v>0.3689320388349515</v>
+        <v>0.02800939322609439</v>
       </c>
       <c r="J18">
         <v>0.3689320388349515</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3689320388349515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>33.125</v>
       </c>
       <c r="F19">
-        <v>13.2556209564209</v>
+        <v>13.25562286376953</v>
       </c>
       <c r="G19">
         <v>550</v>
@@ -934,13 +985,16 @@
         <v>-0.06028368794326244</v>
       </c>
       <c r="I19">
-        <v>0.2679425837320575</v>
+        <v>0.03382137596912702</v>
       </c>
       <c r="J19">
         <v>0.2679425837320575</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.2679425837320575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>14.40610885620117</v>
+        <v>14.40610790252686</v>
       </c>
       <c r="G20">
         <v>2550</v>
@@ -966,13 +1020,16 @@
         <v>0.08679245283018866</v>
       </c>
       <c r="I20">
-        <v>0.352112676056338</v>
+        <v>0.03658494465475919</v>
       </c>
       <c r="J20">
         <v>0.352112676056338</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.352112676056338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>34.75</v>
       </c>
       <c r="F21">
-        <v>13.90589904785156</v>
+        <v>13.90589714050293</v>
       </c>
       <c r="G21">
         <v>52750</v>
@@ -998,13 +1055,16 @@
         <v>-0.03472222222222221</v>
       </c>
       <c r="I21">
-        <v>0.2355555555555555</v>
+        <v>0.03785695664303707</v>
       </c>
       <c r="J21">
         <v>0.2355555555555555</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.2355555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>34.625</v>
       </c>
       <c r="F22">
-        <v>13.85587882995605</v>
+        <v>13.85587787628174</v>
       </c>
       <c r="G22">
         <v>150</v>
@@ -1030,13 +1090,16 @@
         <v>-0.003597122302158251</v>
       </c>
       <c r="I22">
-        <v>0.173728813559322</v>
+        <v>0.03719115052913771</v>
       </c>
       <c r="J22">
         <v>0.173728813559322</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.173728813559322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>35.25</v>
       </c>
       <c r="F23">
-        <v>14.11799812316895</v>
+        <v>14.11799907684326</v>
       </c>
       <c r="G23">
         <v>1400</v>
@@ -1062,13 +1125,16 @@
         <v>0.01805054151624552</v>
       </c>
       <c r="I23">
-        <v>0.1417004048582995</v>
+        <v>0.03624947849851744</v>
       </c>
       <c r="J23">
         <v>0.1417004048582995</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.1417004048582995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>37.25</v>
       </c>
       <c r="F24">
-        <v>14.91901874542236</v>
+        <v>14.91901969909668</v>
       </c>
       <c r="G24">
         <v>6600</v>
@@ -1094,13 +1160,16 @@
         <v>0.05673758865248235</v>
       </c>
       <c r="I24">
-        <v>0.2735042735042734</v>
+        <v>0.03633439362639627</v>
       </c>
       <c r="J24">
         <v>0.2735042735042734</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.2735042735042734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>39.75</v>
       </c>
       <c r="F25">
-        <v>15.92029476165771</v>
+        <v>15.92029762268066</v>
       </c>
       <c r="G25">
         <v>4300</v>
@@ -1126,13 +1195,16 @@
         <v>0.06711409395973145</v>
       </c>
       <c r="I25">
-        <v>0.3140495867768596</v>
+        <v>0.03685458312616097</v>
       </c>
       <c r="J25">
         <v>0.3140495867768596</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.3140495867768596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>42.875</v>
       </c>
       <c r="F26">
-        <v>17.17189407348633</v>
+        <v>17.17189025878906</v>
       </c>
       <c r="G26">
         <v>14500</v>
@@ -1158,13 +1230,16 @@
         <v>0.07861635220125796</v>
       </c>
       <c r="I26">
-        <v>0.3999999999999999</v>
+        <v>0.03787166199095676</v>
       </c>
       <c r="J26">
         <v>0.3999999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.3999999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>42.5</v>
       </c>
       <c r="F27">
-        <v>17.02169799804688</v>
+        <v>17.02169990539551</v>
       </c>
       <c r="G27">
         <v>11100</v>
@@ -1190,13 +1265,16 @@
         <v>-0.008746355685131157</v>
       </c>
       <c r="I27">
-        <v>0.3600000000000001</v>
+        <v>0.037650236110543</v>
       </c>
       <c r="J27">
         <v>0.3600000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1222,13 +1300,16 @@
         <v>-0.04117647058823526</v>
       </c>
       <c r="I28">
-        <v>0.2348484848484849</v>
+        <v>0.03896130103860581</v>
       </c>
       <c r="J28">
         <v>0.2348484848484849</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.2348484848484849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>16.82144546508789</v>
+        <v>16.82143783569336</v>
       </c>
       <c r="G29">
         <v>19000</v>
@@ -1254,13 +1335,16 @@
         <v>0.03067484662576692</v>
       </c>
       <c r="I29">
-        <v>0.2537313432835822</v>
+        <v>0.03825698833508728</v>
       </c>
       <c r="J29">
         <v>0.2537313432835822</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.2537313432835822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1286,13 +1370,16 @@
         <v>-0.02976190476190477</v>
       </c>
       <c r="I30">
-        <v>0.1560283687943262</v>
+        <v>0.03873272417531</v>
       </c>
       <c r="J30">
         <v>0.1560283687943262</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.1560283687943262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="F31">
-        <v>14.38479900360107</v>
+        <v>14.38480186462402</v>
       </c>
       <c r="G31">
         <v>26600</v>
@@ -1318,13 +1405,16 @@
         <v>-0.1411042944785276</v>
       </c>
       <c r="I31">
-        <v>0.05660377358490565</v>
+        <v>0.04826079653725448</v>
       </c>
       <c r="J31">
         <v>0.05660377358490565</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.05660377358490565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1350,13 +1440,16 @@
         <v>0.03214285714285725</v>
       </c>
       <c r="I32">
-        <v>0.003472222222222321</v>
+        <v>0.04754534674025717</v>
       </c>
       <c r="J32">
         <v>0.003472222222222321</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.003472222222222321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>38.125</v>
       </c>
       <c r="F33">
-        <v>15.66915702819824</v>
+        <v>15.66915130615234</v>
       </c>
       <c r="G33">
         <v>7850</v>
@@ -1382,13 +1475,16 @@
         <v>0.05536332179930792</v>
       </c>
       <c r="I33">
-        <v>0.09712230215827344</v>
+        <v>0.04733345549731</v>
       </c>
       <c r="J33">
         <v>0.09712230215827344</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.09712230215827344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>16.43977355957031</v>
+        <v>16.43976783752441</v>
       </c>
       <c r="G34">
         <v>30950</v>
@@ -1414,13 +1510,16 @@
         <v>0.04918032786885251</v>
       </c>
       <c r="I34">
-        <v>0.1552346570397112</v>
+        <v>0.0469470492903168</v>
       </c>
       <c r="J34">
         <v>0.1552346570397112</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.1552346570397112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>40.875</v>
       </c>
       <c r="F35">
-        <v>16.87257385253906</v>
+        <v>16.87257194519043</v>
       </c>
       <c r="G35">
         <v>17200</v>
@@ -1446,13 +1545,16 @@
         <v>0.02187500000000009</v>
       </c>
       <c r="I35">
-        <v>0.1595744680851063</v>
+        <v>0.04621760820154687</v>
       </c>
       <c r="J35">
         <v>0.1595744680851063</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.1595744680851063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>41.125</v>
       </c>
       <c r="F36">
-        <v>16.97576713562012</v>
+        <v>16.97577095031738</v>
       </c>
       <c r="G36">
         <v>3300</v>
@@ -1478,13 +1580,16 @@
         <v>0.006116207951070374</v>
       </c>
       <c r="I36">
-        <v>0.1040268456375839</v>
+        <v>0.04554704144276905</v>
       </c>
       <c r="J36">
         <v>0.1040268456375839</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.1040268456375839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>0.01215805471124609</v>
       </c>
       <c r="I37">
-        <v>0.04716981132075482</v>
+        <v>0.04487751730217395</v>
       </c>
       <c r="J37">
         <v>0.04716981132075482</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.04716981132075482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1542,13 +1650,16 @@
         <v>0.02402402402402393</v>
       </c>
       <c r="I38">
-        <v>-0.005830903790087438</v>
+        <v>0.04425139727599037</v>
       </c>
       <c r="J38">
         <v>-0.005830903790087438</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.005830903790087438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.04398826979472137</v>
       </c>
       <c r="I39">
-        <v>0.04705882352941182</v>
+        <v>0.04386865664436283</v>
       </c>
       <c r="J39">
         <v>0.04705882352941182</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.04705882352941182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>42</v>
       </c>
       <c r="F40">
-        <v>17.33695220947266</v>
+        <v>17.33694839477539</v>
       </c>
       <c r="G40">
         <v>2700</v>
@@ -1606,13 +1720,16 @@
         <v>-0.0561797752808989</v>
       </c>
       <c r="I40">
-        <v>0.03067484662576692</v>
+        <v>0.0448742057746427</v>
       </c>
       <c r="J40">
         <v>0.03067484662576692</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.03067484662576692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>43.125</v>
       </c>
       <c r="F41">
-        <v>17.80133628845215</v>
+        <v>17.80133438110352</v>
       </c>
       <c r="G41">
         <v>53100</v>
@@ -1638,13 +1755,16 @@
         <v>0.02678571428571419</v>
       </c>
       <c r="I41">
-        <v>0.02678571428571419</v>
+        <v>0.04431896889051905</v>
       </c>
       <c r="J41">
         <v>0.02678571428571419</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.02678571428571419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>42.5</v>
       </c>
       <c r="F42">
-        <v>17.54334259033203</v>
+        <v>17.54334449768066</v>
       </c>
       <c r="G42">
         <v>2250</v>
@@ -1670,13 +1790,16 @@
         <v>-0.01449275362318836</v>
       </c>
       <c r="I42">
-        <v>0.04294478527607359</v>
+        <v>0.04400257407886188</v>
       </c>
       <c r="J42">
         <v>0.04294478527607359</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.04294478527607359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>40.625</v>
       </c>
       <c r="F43">
-        <v>17.56440544128418</v>
+        <v>17.56440734863281</v>
       </c>
       <c r="G43">
         <v>2950</v>
@@ -1702,13 +1825,16 @@
         <v>-0.04411764705882348</v>
       </c>
       <c r="I43">
-        <v>0.1607142857142858</v>
+        <v>0.04440959492842313</v>
       </c>
       <c r="J43">
         <v>0.1607142857142858</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.1607142857142858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>40.625</v>
       </c>
       <c r="F44">
-        <v>17.56440544128418</v>
+        <v>17.56440734863281</v>
       </c>
       <c r="G44">
         <v>11650</v>
@@ -1734,13 +1860,16 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.1245674740484428</v>
+        <v>0.04391243490962056</v>
       </c>
       <c r="J44">
         <v>0.1245674740484428</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.1245674740484428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>41.375</v>
       </c>
       <c r="F45">
-        <v>17.88867378234863</v>
+        <v>17.8886775970459</v>
       </c>
       <c r="G45">
         <v>17250</v>
@@ -1766,13 +1895,16 @@
         <v>0.01846153846153853</v>
       </c>
       <c r="I45">
-        <v>0.08524590163934431</v>
+        <v>0.04339464769165116</v>
       </c>
       <c r="J45">
         <v>0.08524590163934431</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.08524590163934431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>41.75</v>
       </c>
       <c r="F46">
-        <v>18.05080604553223</v>
+        <v>18.05080413818359</v>
       </c>
       <c r="G46">
         <v>12150</v>
@@ -1798,13 +1930,16 @@
         <v>0.009063444108761365</v>
       </c>
       <c r="I46">
-        <v>0.04374999999999996</v>
+        <v>0.04289136900434127</v>
       </c>
       <c r="J46">
         <v>0.04374999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.04374999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1830,13 +1965,16 @@
         <v>0.02694610778443107</v>
       </c>
       <c r="I47">
-        <v>0.04892966360856277</v>
+        <v>0.04245217052406351</v>
       </c>
       <c r="J47">
         <v>0.04892966360856277</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.04892966360856277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>39</v>
       </c>
       <c r="F48">
-        <v>17.17917060852051</v>
+        <v>17.17916870117188</v>
       </c>
       <c r="G48">
         <v>155450</v>
@@ -1862,13 +2000,16 @@
         <v>-0.09037900874635574</v>
       </c>
       <c r="I48">
-        <v>-0.05167173252279633</v>
+        <v>0.04467463104379154</v>
       </c>
       <c r="J48">
         <v>-0.05167173252279633</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.05167173252279633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>38.375</v>
       </c>
       <c r="F49">
-        <v>16.90386581420898</v>
+        <v>16.90386199951172</v>
       </c>
       <c r="G49">
         <v>71950</v>
@@ -1894,13 +2035,16 @@
         <v>-0.01602564102564108</v>
       </c>
       <c r="I49">
-        <v>-0.07807807807807809</v>
+        <v>0.0443624751589983</v>
       </c>
       <c r="J49">
         <v>-0.07807807807807809</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.07807807807807809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1926,13 +2070,16 @@
         <v>0.06514657980456029</v>
       </c>
       <c r="I50">
-        <v>-0.04105571847507328</v>
+        <v>0.04459188554661078</v>
       </c>
       <c r="J50">
         <v>-0.04105571847507328</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.04105571847507328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>39.25</v>
       </c>
       <c r="F51">
-        <v>17.28929138183594</v>
+        <v>17.2892894744873</v>
       </c>
       <c r="G51">
         <v>10400</v>
@@ -1958,13 +2105,16 @@
         <v>-0.03975535168195721</v>
       </c>
       <c r="I51">
-        <v>-0.1179775280898876</v>
+        <v>0.04473091921841469</v>
       </c>
       <c r="J51">
         <v>-0.1179775280898876</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.1179775280898876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>37.875</v>
       </c>
       <c r="F52">
-        <v>16.68362236022949</v>
+        <v>16.68361473083496</v>
       </c>
       <c r="G52">
         <v>74450</v>
@@ -1990,13 +2140,16 @@
         <v>-0.03503184713375795</v>
       </c>
       <c r="I52">
-        <v>-0.0982142857142857</v>
+        <v>0.04473920676786886</v>
       </c>
       <c r="J52">
         <v>-0.0982142857142857</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.0982142857142857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>38.375</v>
       </c>
       <c r="F53">
-        <v>16.90386581420898</v>
+        <v>16.90386199951172</v>
       </c>
       <c r="G53">
         <v>10200</v>
@@ -2022,13 +2175,16 @@
         <v>0.01320132013201314</v>
       </c>
       <c r="I53">
-        <v>-0.1101449275362318</v>
+        <v>0.04429234716686484</v>
       </c>
       <c r="J53">
         <v>-0.1101449275362318</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.1101449275362318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>38.375</v>
       </c>
       <c r="F54">
-        <v>16.90386581420898</v>
+        <v>16.90386199951172</v>
       </c>
       <c r="G54">
         <v>3850</v>
@@ -2054,13 +2210,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-0.09705882352941175</v>
+        <v>0.04387666550213951</v>
       </c>
       <c r="J54">
         <v>-0.09705882352941175</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.09705882352941175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2086,13 +2245,16 @@
         <v>-0.03908794788273617</v>
       </c>
       <c r="I55">
-        <v>-0.09230769230769231</v>
+        <v>0.04396296358564548</v>
       </c>
       <c r="J55">
         <v>-0.09230769230769231</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.09230769230769231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>35.75</v>
       </c>
       <c r="F56">
-        <v>16.53354835510254</v>
+        <v>16.53355026245117</v>
       </c>
       <c r="G56">
         <v>53600</v>
@@ -2118,13 +2280,16 @@
         <v>-0.03050847457627115</v>
       </c>
       <c r="I56">
-        <v>-0.12</v>
+        <v>0.04387050014375274</v>
       </c>
       <c r="J56">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2150,13 +2315,16 @@
         <v>0.02797202797202791</v>
       </c>
       <c r="I57">
-        <v>-0.1117824773413897</v>
+        <v>0.04354666154548787</v>
       </c>
       <c r="J57">
         <v>-0.1117824773413897</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1117824773413897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>34.5</v>
       </c>
       <c r="F58">
-        <v>15.95545768737793</v>
+        <v>15.95545864105225</v>
       </c>
       <c r="G58">
         <v>6800</v>
@@ -2182,13 +2350,16 @@
         <v>-0.06122448979591832</v>
       </c>
       <c r="I58">
-        <v>-0.1736526946107785</v>
+        <v>0.04413659090723945</v>
       </c>
       <c r="J58">
         <v>-0.1736526946107785</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1736526946107785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2214,13 +2385,16 @@
         <v>0.02173913043478271</v>
       </c>
       <c r="I59">
-        <v>-0.1778425655976676</v>
+        <v>0.04378419539384897</v>
       </c>
       <c r="J59">
         <v>-0.1778425655976676</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1778425655976676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>35.65999984741211</v>
       </c>
       <c r="F60">
-        <v>16.50814056396484</v>
+        <v>16.50813865661621</v>
       </c>
       <c r="G60">
         <v>64850</v>
@@ -2246,13 +2420,16 @@
         <v>0.01163120134502438</v>
       </c>
       <c r="I60">
-        <v>-0.0856410295535357</v>
+        <v>0.0434021963032112</v>
       </c>
       <c r="J60">
         <v>-0.0856410295535357</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.0856410295535357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>33.38000106811523</v>
       </c>
       <c r="F61">
-        <v>15.4526538848877</v>
+        <v>15.45265579223633</v>
       </c>
       <c r="G61">
         <v>33800</v>
@@ -2278,13 +2455,16 @@
         <v>-0.06393715056233618</v>
       </c>
       <c r="I61">
-        <v>-0.1301628386158896</v>
+        <v>0.0440159245072768</v>
       </c>
       <c r="J61">
         <v>-0.1301628386158896</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.1301628386158896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2310,13 +2490,16 @@
         <v>-0.0605152903872489</v>
       </c>
       <c r="I62">
-        <v>-0.2327828596855887</v>
+        <v>0.04448160931030968</v>
       </c>
       <c r="J62">
         <v>-0.2327828596855887</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.2327828596855887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>33.29999923706055</v>
       </c>
       <c r="F63">
-        <v>15.41561889648438</v>
+        <v>15.41561698913574</v>
       </c>
       <c r="G63">
         <v>26450</v>
@@ -2342,13 +2525,16 @@
         <v>0.06186219990278352</v>
       </c>
       <c r="I63">
-        <v>-0.151592376125846</v>
+        <v>0.04470556074255335</v>
       </c>
       <c r="J63">
         <v>-0.151592376125846</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.151592376125846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>32.54000091552734</v>
       </c>
       <c r="F64">
-        <v>15.06379222869873</v>
+        <v>15.06379508972168</v>
       </c>
       <c r="G64">
         <v>15350</v>
@@ -2374,13 +2560,16 @@
         <v>-0.02282277294130919</v>
       </c>
       <c r="I64">
-        <v>-0.1408580616362417</v>
+        <v>0.04448804793136826</v>
       </c>
       <c r="J64">
         <v>-0.1408580616362417</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1408580616362417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>31.5</v>
       </c>
       <c r="F65">
-        <v>14.58234119415283</v>
+        <v>14.58234214782715</v>
       </c>
       <c r="G65">
         <v>194000</v>
@@ -2406,13 +2595,16 @@
         <v>-0.03196069103461763</v>
       </c>
       <c r="I65">
-        <v>-0.1791530944625407</v>
+        <v>0.04437944125784558</v>
       </c>
       <c r="J65">
         <v>-0.1791530944625407</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1791530944625407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>31.10000038146973</v>
       </c>
       <c r="F66">
-        <v>14.39717197418213</v>
+        <v>14.39717102050781</v>
       </c>
       <c r="G66">
         <v>64800</v>
@@ -2438,13 +2630,16 @@
         <v>-0.01269840058826266</v>
       </c>
       <c r="I66">
-        <v>-0.1895765372906911</v>
+        <v>0.04408075155426606</v>
       </c>
       <c r="J66">
         <v>-0.1895765372906911</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1895765372906911</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2470,13 +2665,16 @@
         <v>-0.02379420456724746</v>
       </c>
       <c r="I67">
-        <v>-0.1766779495497881</v>
+        <v>0.04387685958035227</v>
       </c>
       <c r="J67">
         <v>-0.1766779495497881</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.1766779495497881</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>28</v>
       </c>
       <c r="F68">
-        <v>13.18105983734131</v>
+        <v>13.18105697631836</v>
       </c>
       <c r="G68">
         <v>26750</v>
@@ -2502,13 +2700,16 @@
         <v>-0.0777338788836156</v>
       </c>
       <c r="I68">
-        <v>-0.2167832167832168</v>
+        <v>0.04469060470392232</v>
       </c>
       <c r="J68">
         <v>-0.2167832167832168</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.2167832167832168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>28.54000091552734</v>
       </c>
       <c r="F69">
-        <v>13.43525981903076</v>
+        <v>13.43526077270508</v>
       </c>
       <c r="G69">
         <v>54400</v>
@@ -2534,13 +2735,16 @@
         <v>0.01928574698311936</v>
       </c>
       <c r="I69">
-        <v>-0.223401335631909</v>
+        <v>0.04439563475754773</v>
       </c>
       <c r="J69">
         <v>-0.223401335631909</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.223401335631909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>28.86000061035156</v>
       </c>
       <c r="F70">
-        <v>13.58590221405029</v>
+        <v>13.58590412139893</v>
       </c>
       <c r="G70">
         <v>117750</v>
@@ -2566,13 +2770,16 @@
         <v>0.01121232251433191</v>
       </c>
       <c r="I70">
-        <v>-0.1634782431782156</v>
+        <v>0.04407381015001392</v>
       </c>
       <c r="J70">
         <v>-0.1634782431782156</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.1634782431782156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>29.3799991607666</v>
       </c>
       <c r="F71">
-        <v>14.04421997070312</v>
+        <v>14.04422187805176</v>
       </c>
       <c r="G71">
         <v>20900</v>
@@ -2598,13 +2805,16 @@
         <v>0.01801796740879236</v>
       </c>
       <c r="I71">
-        <v>-0.1665248465030751</v>
+        <v>0.04378435239993447</v>
       </c>
       <c r="J71">
         <v>-0.1665248465030751</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.1665248465030751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>28.34000015258789</v>
       </c>
       <c r="F72">
-        <v>13.54708194732666</v>
+        <v>13.54708480834961</v>
       </c>
       <c r="G72">
         <v>123600</v>
@@ -2630,13 +2840,16 @@
         <v>-0.0353981973412546</v>
       </c>
       <c r="I72">
-        <v>-0.2052720057808817</v>
+        <v>0.04371415529645561</v>
       </c>
       <c r="J72">
         <v>-0.2052720057808817</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2052720057808817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="F73">
-        <v>13.32719039916992</v>
+        <v>13.32719230651855</v>
       </c>
       <c r="G73">
         <v>13600</v>
@@ -2662,13 +2875,16 @@
         <v>-0.01623150985690036</v>
       </c>
       <c r="I73">
-        <v>-0.1647693748159363</v>
+        <v>0.04346055691001608</v>
       </c>
       <c r="J73">
         <v>-0.1647693748159363</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.1647693748159363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>29.31999969482422</v>
       </c>
       <c r="F74">
-        <v>14.01553916931152</v>
+        <v>14.01553726196289</v>
       </c>
       <c r="G74">
         <v>8000</v>
@@ -2694,13 +2910,16 @@
         <v>0.05164994897431785</v>
       </c>
       <c r="I74">
-        <v>-0.06505104833620323</v>
+        <v>0.04353733970133982</v>
       </c>
       <c r="J74">
         <v>-0.06505104833620323</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.06505104833620323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>29.5</v>
       </c>
       <c r="F75">
-        <v>14.10158252716064</v>
+        <v>14.10158157348633</v>
       </c>
       <c r="G75">
         <v>24600</v>
@@ -2726,13 +2945,16 @@
         <v>0.006139164633332417</v>
       </c>
       <c r="I75">
-        <v>-0.1141140938174983</v>
+        <v>0.04323514857777811</v>
       </c>
       <c r="J75">
         <v>-0.1141140938174983</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.1141140938174983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F76">
-        <v>13.82433128356934</v>
+        <v>13.82433223724365</v>
       </c>
       <c r="G76">
         <v>36950</v>
@@ -2758,13 +2980,16 @@
         <v>-0.01966101436291712</v>
       </c>
       <c r="I76">
-        <v>-0.1112477178052572</v>
+        <v>0.04302170867772073</v>
       </c>
       <c r="J76">
         <v>-0.1112477178052572</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1112477178052572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F77">
-        <v>13.28894805908203</v>
+        <v>13.2889518737793</v>
       </c>
       <c r="G77">
         <v>15700</v>
@@ -2790,13 +3015,16 @@
         <v>-0.03872755312167087</v>
       </c>
       <c r="I77">
-        <v>-0.1174603416806176</v>
+        <v>0.04300216655929495</v>
       </c>
       <c r="J77">
         <v>-0.1174603416806176</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.1174603416806176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>26.20000076293945</v>
       </c>
       <c r="F78">
-        <v>12.52412128448486</v>
+        <v>12.52411937713623</v>
       </c>
       <c r="G78">
         <v>48850</v>
@@ -2822,13 +3050,16 @@
         <v>-0.05755390352630352</v>
       </c>
       <c r="I78">
-        <v>-0.1575562558979849</v>
+        <v>0.04326725872338667</v>
       </c>
       <c r="J78">
         <v>-0.1575562558979849</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1575562558979849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>25.71999931335449</v>
       </c>
       <c r="F79">
-        <v>12.29466819763184</v>
+        <v>12.2946662902832</v>
       </c>
       <c r="G79">
         <v>105950</v>
@@ -2854,13 +3085,16 @@
         <v>-0.01832066548119859</v>
       </c>
       <c r="I79">
-        <v>-0.1528327142198743</v>
+        <v>0.04304250568307221</v>
       </c>
       <c r="J79">
         <v>-0.1528327142198743</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1528327142198743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="F80">
-        <v>11.17610168457031</v>
+        <v>11.17609882354736</v>
       </c>
       <c r="G80">
         <v>48900</v>
@@ -2886,13 +3120,16 @@
         <v>-0.09097979063214445</v>
       </c>
       <c r="I80">
-        <v>-0.1650000299726214</v>
+        <v>0.0440253299172587</v>
       </c>
       <c r="J80">
         <v>-0.1650000299726214</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1650000299726214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>24.52000045776367</v>
       </c>
       <c r="F81">
-        <v>11.72104644775391</v>
+        <v>11.72104263305664</v>
       </c>
       <c r="G81">
         <v>89550</v>
@@ -2918,13 +3155,16 @@
         <v>0.04875968083480853</v>
       </c>
       <c r="I81">
-        <v>-0.1408549519553999</v>
+        <v>0.04408056610634824</v>
       </c>
       <c r="J81">
         <v>-0.1408549519553999</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1408549519553999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="F82">
-        <v>12.24686813354492</v>
+        <v>12.24686622619629</v>
       </c>
       <c r="G82">
         <v>13400</v>
@@ -2950,13 +3190,16 @@
         <v>0.04486135240350042</v>
       </c>
       <c r="I82">
-        <v>-0.1122661019610663</v>
+        <v>0.04407532177193802</v>
       </c>
       <c r="J82">
         <v>-0.1122661019610663</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.1122661019610663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F83">
-        <v>11.88966178894043</v>
+        <v>11.88966083526611</v>
       </c>
       <c r="G83">
         <v>13600</v>
@@ -2982,13 +3225,16 @@
         <v>-0.05152230909186606</v>
       </c>
       <c r="I83">
-        <v>-0.172906741620666</v>
+        <v>0.04419299770245229</v>
       </c>
       <c r="J83">
         <v>-0.172906741620666</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.172906741620666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3014,13 +3260,16 @@
         <v>-0.03786008663287654</v>
       </c>
       <c r="I84">
-        <v>-0.1750176769624457</v>
+        <v>0.04412654693756074</v>
       </c>
       <c r="J84">
         <v>-0.1750176769624457</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1750176769624457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>22.26000022888184</v>
       </c>
       <c r="F85">
-        <v>10.89151954650879</v>
+        <v>10.89151859283447</v>
       </c>
       <c r="G85">
         <v>118600</v>
@@ -3046,13 +3295,16 @@
         <v>-0.04790414765130568</v>
       </c>
       <c r="I85">
-        <v>-0.2015781600091783</v>
+        <v>0.04417526695630968</v>
       </c>
       <c r="J85">
         <v>-0.2015781600091783</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.2015781600091783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>22.23999977111816</v>
       </c>
       <c r="F86">
-        <v>10.88173198699951</v>
+        <v>10.8817310333252</v>
       </c>
       <c r="G86">
         <v>2490700</v>
@@ -3078,13 +3330,16 @@
         <v>-0.0008984931517530548</v>
       </c>
       <c r="I86">
-        <v>-0.241473396909887</v>
+        <v>0.04390840389255547</v>
       </c>
       <c r="J86">
         <v>-0.241473396909887</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.241473396909887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F87">
-        <v>12.0560188293457</v>
+        <v>12.05602073669434</v>
       </c>
       <c r="G87">
         <v>107950</v>
@@ -3110,13 +3365,16 @@
         <v>0.1079136530229203</v>
       </c>
       <c r="I87">
-        <v>-0.1647457834017478</v>
+        <v>0.04519536924466688</v>
       </c>
       <c r="J87">
         <v>-0.1647457834017478</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.1647457834017478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3142,13 +3400,16 @@
         <v>0.06087662488458379</v>
       </c>
       <c r="I88">
-        <v>-0.09612727106886509</v>
+        <v>0.04538986537490985</v>
       </c>
       <c r="J88">
         <v>-0.09612727106886509</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.09612727106886509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F89">
-        <v>12.84866428375244</v>
+        <v>12.84866333007812</v>
       </c>
       <c r="G89">
         <v>37400</v>
@@ -3174,13 +3435,16 @@
         <v>0.004590697859041315</v>
       </c>
       <c r="I89">
-        <v>-0.05539564929648333</v>
+        <v>0.04512624576662301</v>
       </c>
       <c r="J89">
         <v>-0.05539564929648333</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.05539564929648333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F90">
-        <v>12.71166801452637</v>
+        <v>12.7116641998291</v>
       </c>
       <c r="G90">
         <v>17300</v>
@@ -3206,13 +3470,16 @@
         <v>-0.01066263077703833</v>
       </c>
       <c r="I90">
-        <v>-0.008396992912088841</v>
+        <v>0.04488567948022514</v>
       </c>
       <c r="J90">
         <v>-0.008396992912088841</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.008396992912088841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>26.02000045776367</v>
       </c>
       <c r="F91">
-        <v>12.73123168945312</v>
+        <v>12.73123264312744</v>
       </c>
       <c r="G91">
         <v>179650</v>
@@ -3238,13 +3505,16 @@
         <v>0.001539681148273742</v>
       </c>
       <c r="I91">
-        <v>0.01166411945638779</v>
+        <v>0.04462991927155138</v>
       </c>
       <c r="J91">
         <v>0.01166411945638779</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.01166411945638779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F92">
-        <v>13.12266254425049</v>
+        <v>13.12266540527344</v>
       </c>
       <c r="G92">
         <v>122800</v>
@@ -3270,13 +3540,16 @@
         <v>0.03074555046065908</v>
       </c>
       <c r="I92">
-        <v>0.1471343309468631</v>
+        <v>0.04448458545631064</v>
       </c>
       <c r="J92">
         <v>0.1471343309468631</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.1471343309468631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F93">
-        <v>14.15995216369629</v>
+        <v>14.15994930267334</v>
       </c>
       <c r="G93">
         <v>25900</v>
@@ -3302,13 +3575,16 @@
         <v>0.07904552063222137</v>
       </c>
       <c r="I93">
-        <v>0.1802610111654568</v>
+        <v>0.04496916249424689</v>
       </c>
       <c r="J93">
         <v>0.1802610111654568</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.1802610111654568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F94">
-        <v>14.49266624450684</v>
+        <v>14.49266719818115</v>
       </c>
       <c r="G94">
         <v>12600</v>
@@ -3334,13 +3610,16 @@
         <v>0.02349690022899398</v>
       </c>
       <c r="I94">
-        <v>0.1561280198662043</v>
+        <v>0.0447734934610634</v>
       </c>
       <c r="J94">
         <v>0.1561280198662043</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.1561280198662043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>31.15999984741211</v>
       </c>
       <c r="F95">
-        <v>16.02722358703613</v>
+        <v>16.02722549438477</v>
       </c>
       <c r="G95">
         <v>96150</v>
@@ -3366,13 +3645,16 @@
         <v>0.05199186240869014</v>
       </c>
       <c r="I95">
-        <v>0.282304560729747</v>
+        <v>0.04481821922950829</v>
       </c>
       <c r="J95">
         <v>0.282304560729747</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.282304560729747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="F96">
-        <v>15.9449291229248</v>
+        <v>15.94492626190186</v>
       </c>
       <c r="G96">
         <v>28050</v>
@@ -3398,13 +3680,16 @@
         <v>-0.005134783318216152</v>
       </c>
       <c r="I96">
-        <v>0.3259196369869992</v>
+        <v>0.04458558387906664</v>
       </c>
       <c r="J96">
         <v>0.3259196369869992</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.3259196369869992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>32.47999954223633</v>
       </c>
       <c r="F97">
-        <v>16.70616912841797</v>
+        <v>16.70616722106934</v>
       </c>
       <c r="G97">
         <v>109100</v>
@@ -3430,13 +3715,16 @@
         <v>0.04774192071730088</v>
       </c>
       <c r="I97">
-        <v>0.4591194612879779</v>
+        <v>0.04458005272291032</v>
       </c>
       <c r="J97">
         <v>0.4591194612879779</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.4591194612879779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>31.70000076293945</v>
       </c>
       <c r="F98">
-        <v>16.30497550964355</v>
+        <v>16.30497360229492</v>
       </c>
       <c r="G98">
         <v>74000</v>
@@ -3462,13 +3750,16 @@
         <v>-0.02401474108035562</v>
       </c>
       <c r="I98">
-        <v>0.4253597612040654</v>
+        <v>0.04443630480314565</v>
       </c>
       <c r="J98">
         <v>0.4253597612040654</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.4253597612040654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3494,13 +3785,16 @@
         <v>-0.01640379953465509</v>
       </c>
       <c r="I99">
-        <v>0.2654221216529282</v>
+        <v>0.04425099434378166</v>
       </c>
       <c r="J99">
         <v>0.2654221216529282</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.2654221216529282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>31.79999923706055</v>
       </c>
       <c r="F100">
-        <v>16.35640716552734</v>
+        <v>16.35640335083008</v>
       </c>
       <c r="G100">
         <v>69350</v>
@@ -3526,13 +3820,16 @@
         <v>0.01988450692163224</v>
       </c>
       <c r="I100">
-        <v>0.2165263955458812</v>
+        <v>0.04405373263631372</v>
       </c>
       <c r="J100">
         <v>0.2165263955458812</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.2165263955458812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>32.29999923706055</v>
       </c>
       <c r="F101">
-        <v>16.61358451843262</v>
+        <v>16.61358070373535</v>
       </c>
       <c r="G101">
         <v>83600</v>
@@ -3558,13 +3855,16 @@
         <v>0.01572327081748126</v>
       </c>
       <c r="I101">
-        <v>0.2300075763722069</v>
+        <v>0.04384537421006698</v>
       </c>
       <c r="J101">
         <v>0.2300075763722069</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2300075763722069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>31.54000091552734</v>
       </c>
       <c r="F102">
-        <v>16.22267150878906</v>
+        <v>16.22267532348633</v>
       </c>
       <c r="G102">
         <v>77650</v>
@@ -3590,13 +3890,16 @@
         <v>-0.02352936035556286</v>
       </c>
       <c r="I102">
-        <v>0.214010834151555</v>
+        <v>0.04370830226693815</v>
       </c>
       <c r="J102">
         <v>0.214010834151555</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.214010834151555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>31.89999961853027</v>
       </c>
       <c r="F103">
-        <v>16.40784072875977</v>
+        <v>16.40784645080566</v>
       </c>
       <c r="G103">
         <v>69350</v>
@@ -3622,13 +3925,16 @@
         <v>0.01141403590846757</v>
       </c>
       <c r="I103">
-        <v>0.2259799791437809</v>
+        <v>0.04349646215233854</v>
       </c>
       <c r="J103">
         <v>0.2259799791437809</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2259799791437809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>32.65999984741211</v>
       </c>
       <c r="F104">
-        <v>16.79874992370605</v>
+        <v>16.79875564575195</v>
       </c>
       <c r="G104">
         <v>77150</v>
@@ -3654,13 +3960,16 @@
         <v>0.02382445887053741</v>
       </c>
       <c r="I104">
-        <v>0.2177479574585865</v>
+        <v>0.04332730358879154</v>
       </c>
       <c r="J104">
         <v>0.2177479574585865</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2177479574585865</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F105">
-        <v>17.28224563598633</v>
+        <v>17.28224182128906</v>
       </c>
       <c r="G105">
         <v>101550</v>
@@ -3686,13 +3995,16 @@
         <v>0.02878134204227401</v>
       </c>
       <c r="I105">
-        <v>0.1610227316540449</v>
+        <v>0.04318510080356559</v>
       </c>
       <c r="J105">
         <v>0.1610227316540449</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1610227316540449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>0.05714291877487354</v>
       </c>
       <c r="I106">
-        <v>0.199189718141918</v>
+        <v>0.0432902840962003</v>
       </c>
       <c r="J106">
         <v>0.199189718141918</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.199189718141918</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>36.18000030517578</v>
       </c>
       <c r="F107">
-        <v>18.96844482421875</v>
+        <v>18.96844100952148</v>
       </c>
       <c r="G107">
         <v>44800</v>
@@ -3750,13 +4065,16 @@
         <v>0.01858107654578744</v>
       </c>
       <c r="I107">
-        <v>0.1611039949405069</v>
+        <v>0.04310367182910209</v>
       </c>
       <c r="J107">
         <v>0.1611039949405069</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1611039949405069</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>35.29999923706055</v>
       </c>
       <c r="F108">
-        <v>18.50707626342773</v>
+        <v>18.50707817077637</v>
       </c>
       <c r="G108">
         <v>83250</v>
@@ -3782,13 +4100,16 @@
         <v>-0.0243228596100743</v>
       </c>
       <c r="I108">
-        <v>0.1387096528084046</v>
+        <v>0.04298981199980324</v>
       </c>
       <c r="J108">
         <v>0.1387096528084046</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1387096528084046</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F109">
-        <v>19.48223495483398</v>
+        <v>19.48223876953125</v>
       </c>
       <c r="G109">
         <v>57200</v>
@@ -3814,13 +4135,16 @@
         <v>0.05269123655954067</v>
       </c>
       <c r="I109">
-        <v>0.144088681377289</v>
+        <v>0.0430412498448637</v>
       </c>
       <c r="J109">
         <v>0.144088681377289</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.144088681377289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>36.2599983215332</v>
       </c>
       <c r="F110">
-        <v>19.01038932800293</v>
+        <v>19.01038360595703</v>
       </c>
       <c r="G110">
         <v>684300</v>
@@ -3846,13 +4170,16 @@
         <v>-0.02421963211987432</v>
       </c>
       <c r="I110">
-        <v>0.1438484999635978</v>
+        <v>0.04293043394473695</v>
       </c>
       <c r="J110">
         <v>0.1438484999635978</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1438484999635978</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F111">
-        <v>18.77970504760742</v>
+        <v>18.77970123291016</v>
       </c>
       <c r="G111">
         <v>77250</v>
@@ -3878,13 +4205,16 @@
         <v>-0.01213454625141797</v>
       </c>
       <c r="I111">
-        <v>0.1488133208542084</v>
+        <v>0.04276095261791772</v>
       </c>
       <c r="J111">
         <v>0.1488133208542084</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1488133208542084</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3910,13 +4240,16 @@
         <v>-0.007816828076001703</v>
       </c>
       <c r="I112">
-        <v>0.1176101184967357</v>
+        <v>0.04258017613518895</v>
       </c>
       <c r="J112">
         <v>0.1176101184967357</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1176101184967357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F113">
-        <v>18.84261512756348</v>
+        <v>18.84261894226074</v>
       </c>
       <c r="G113">
         <v>14450</v>
@@ -3942,13 +4275,16 @@
         <v>0.0112548593381403</v>
       </c>
       <c r="I113">
-        <v>0.1126934822175463</v>
+        <v>0.0423914060097509</v>
       </c>
       <c r="J113">
         <v>0.1126934822175463</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1126934822175463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F114">
-        <v>18.97892951965332</v>
+        <v>18.97893333435059</v>
       </c>
       <c r="G114">
         <v>55750</v>
@@ -3974,13 +4310,16 @@
         <v>0.007234339069708495</v>
       </c>
       <c r="I114">
-        <v>0.147748881171337</v>
+        <v>0.04220092599440457</v>
       </c>
       <c r="J114">
         <v>0.147748881171337</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.147748881171337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>37.63999938964844</v>
       </c>
       <c r="F115">
-        <v>19.73389053344727</v>
+        <v>19.73389434814453</v>
       </c>
       <c r="G115">
         <v>48400</v>
@@ -4006,13 +4345,16 @@
         <v>0.03977896675027748</v>
       </c>
       <c r="I115">
-        <v>0.1799372990519998</v>
+        <v>0.0421441988002602</v>
       </c>
       <c r="J115">
         <v>0.1799372990519998</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.1799372990519998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>37.91999816894531</v>
       </c>
       <c r="F116">
-        <v>19.88068771362305</v>
+        <v>19.88069152832031</v>
       </c>
       <c r="G116">
         <v>113550</v>
@@ -4038,13 +4380,16 @@
         <v>0.007438862482390896</v>
       </c>
       <c r="I116">
-        <v>0.1610532255391297</v>
+        <v>0.04195811845847496</v>
       </c>
       <c r="J116">
         <v>0.1610532255391297</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.1610532255391297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>37</v>
       </c>
       <c r="F117">
-        <v>19.39835548400879</v>
+        <v>19.39835166931152</v>
       </c>
       <c r="G117">
         <v>58200</v>
@@ -4070,13 +4415,16 @@
         <v>-0.02426155625974546</v>
       </c>
       <c r="I117">
-        <v>0.1011905261989106</v>
+        <v>0.04186074369823396</v>
       </c>
       <c r="J117">
         <v>0.1011905261989106</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1011905261989106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>37.06000137329102</v>
       </c>
       <c r="F118">
-        <v>19.4298152923584</v>
+        <v>19.42981338500977</v>
       </c>
       <c r="G118">
         <v>44000</v>
@@ -4102,13 +4450,16 @@
         <v>0.001621658737595011</v>
       </c>
       <c r="I118">
-        <v>0.04335588107208888</v>
+        <v>0.0416791547765572</v>
       </c>
       <c r="J118">
         <v>0.04335588107208888</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.04335588107208888</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F119">
-        <v>20.08510208129883</v>
+        <v>20.08510398864746</v>
       </c>
       <c r="G119">
         <v>180650</v>
@@ -4134,13 +4485,16 @@
         <v>0.002698285764046515</v>
       </c>
       <c r="I119">
-        <v>0.02708677539994753</v>
+        <v>0.04149941226760932</v>
       </c>
       <c r="J119">
         <v>0.02708677539994753</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.02708677539994753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>39.41999816894531</v>
       </c>
       <c r="F120">
-        <v>21.306640625</v>
+        <v>21.30663871765137</v>
       </c>
       <c r="G120">
         <v>129750</v>
@@ -4166,13 +4520,16 @@
         <v>0.06081803904233851</v>
       </c>
       <c r="I120">
-        <v>0.1167138532841465</v>
+        <v>0.04164697928121654</v>
       </c>
       <c r="J120">
         <v>0.1167138532841465</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1167138532841465</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>39.20000076293945</v>
       </c>
       <c r="F121">
-        <v>21.18773078918457</v>
+        <v>21.1877326965332</v>
       </c>
       <c r="G121">
         <v>97650</v>
@@ -4198,13 +4555,16 @@
         <v>-0.005580857844361131</v>
       </c>
       <c r="I121">
-        <v>0.05489776436770932</v>
+        <v>0.04148118281716086</v>
       </c>
       <c r="J121">
         <v>0.05489776436770932</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.05489776436770932</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4230,13 +4590,16 @@
         <v>0.02857140076751308</v>
       </c>
       <c r="I122">
-        <v>0.1119691550255799</v>
+        <v>0.04136360550288411</v>
       </c>
       <c r="J122">
         <v>0.1119691550255799</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.1119691550255799</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>42.90000152587891</v>
       </c>
       <c r="F123">
-        <v>23.18759536743164</v>
+        <v>23.18758964538574</v>
       </c>
       <c r="G123">
         <v>139050</v>
@@ -4262,13 +4625,16 @@
         <v>0.06398814113547413</v>
       </c>
       <c r="I123">
-        <v>0.1976549941757175</v>
+        <v>0.04164947411418544</v>
       </c>
       <c r="J123">
         <v>0.1976549941757175</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.1976549941757175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F124">
-        <v>22.57141876220703</v>
+        <v>22.5714168548584</v>
       </c>
       <c r="G124">
         <v>111300</v>
@@ -4294,13 +4660,16 @@
         <v>-0.02657350032162609</v>
       </c>
       <c r="I124">
-        <v>0.1750139911585753</v>
+        <v>0.04172833152990028</v>
       </c>
       <c r="J124">
         <v>0.1750139911585753</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.1750139911585753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>42.09999847412109</v>
       </c>
       <c r="F125">
-        <v>22.75518226623535</v>
+        <v>22.75519180297852</v>
       </c>
       <c r="G125">
         <v>132000</v>
@@ -4326,13 +4695,16 @@
         <v>0.008141766433275244</v>
       </c>
       <c r="I125">
-        <v>0.1713967747019967</v>
+        <v>0.04172689651786609</v>
       </c>
       <c r="J125">
         <v>0.1713967747019967</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.1713967747019967</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4358,13 +4730,16 @@
         <v>0.02612832134648491</v>
       </c>
       <c r="I126">
-        <v>0.1933701616704495</v>
+        <v>0.04176187175403585</v>
       </c>
       <c r="J126">
         <v>0.1933701616704495</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1933701616704495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>44.13999938964844</v>
       </c>
       <c r="F127">
-        <v>23.85781478881836</v>
+        <v>23.85782241821289</v>
       </c>
       <c r="G127">
         <v>64200</v>
@@ -4390,13 +4765,16 @@
         <v>0.02175922708583355</v>
       </c>
       <c r="I127">
-        <v>0.1726886319181928</v>
+        <v>0.04178060229347699</v>
       </c>
       <c r="J127">
         <v>0.1726886319181928</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1726886319181928</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>43.77999877929688</v>
       </c>
       <c r="F128">
-        <v>23.66323661804199</v>
+        <v>23.66323471069336</v>
       </c>
       <c r="G128">
         <v>126200</v>
@@ -4422,13 +4800,16 @@
         <v>-0.008155881634107742</v>
       </c>
       <c r="I128">
-        <v>0.154535888536794</v>
+        <v>0.04177866829016627</v>
       </c>
       <c r="J128">
         <v>0.154535888536794</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.154535888536794</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>45.79999923706055</v>
       </c>
       <c r="F129">
-        <v>24.75504875183105</v>
+        <v>24.75505065917969</v>
       </c>
       <c r="G129">
         <v>52800</v>
@@ -4454,13 +4835,16 @@
         <v>0.04613980160088338</v>
       </c>
       <c r="I129">
-        <v>0.2378378172178526</v>
+        <v>0.04168367673411821</v>
       </c>
       <c r="J129">
         <v>0.2378378172178526</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2378378172178526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4486,13 +4870,16 @@
         <v>0.02838426329074273</v>
       </c>
       <c r="I130">
-        <v>0.2709119462706189</v>
+        <v>0.04154379919241676</v>
       </c>
       <c r="J130">
         <v>0.2709119462706189</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.2709119462706189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>46.81999969482422</v>
       </c>
       <c r="F131">
-        <v>26.18308639526367</v>
+        <v>26.18309020996094</v>
       </c>
       <c r="G131">
         <v>66700</v>
@@ -4518,13 +4905,16 @@
         <v>-0.005944772576812696</v>
       </c>
       <c r="I131">
-        <v>0.2599569399106134</v>
+        <v>0.04137568475521358</v>
       </c>
       <c r="J131">
         <v>0.2599569399106134</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2599569399106134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>47.13999938964844</v>
       </c>
       <c r="F132">
-        <v>26.36204719543457</v>
+        <v>26.36203956604004</v>
       </c>
       <c r="G132">
         <v>470200</v>
@@ -4550,13 +4940,16 @@
         <v>0.006834679558094692</v>
       </c>
       <c r="I132">
-        <v>0.1958397153550571</v>
+        <v>0.04104247840597451</v>
       </c>
       <c r="J132">
         <v>0.1958397153550571</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.1958397153550571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>46.43999862670898</v>
       </c>
       <c r="F133">
-        <v>25.97058486938477</v>
+        <v>25.97057723999023</v>
       </c>
       <c r="G133">
         <v>439500</v>
@@ -4582,13 +4975,16 @@
         <v>-0.01484940118801037</v>
       </c>
       <c r="I133">
-        <v>0.1846938194606973</v>
+        <v>0.04099177890536722</v>
       </c>
       <c r="J133">
         <v>0.1846938194606973</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.1846938194606973</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>48.13999938964844</v>
       </c>
       <c r="F134">
-        <v>26.92127990722656</v>
+        <v>26.92127227783203</v>
       </c>
       <c r="G134">
         <v>310350</v>
@@ -4614,13 +5010,16 @@
         <v>0.03660639132667276</v>
       </c>
       <c r="I134">
-        <v>0.1939484065975341</v>
+        <v>0.04109083095307352</v>
       </c>
       <c r="J134">
         <v>0.1939484065975341</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.1939484065975341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4646,13 +5045,16 @@
         <v>0.0324055129428702</v>
       </c>
       <c r="I135">
-        <v>0.1585081350861615</v>
+        <v>0.04114412800006581</v>
       </c>
       <c r="J135">
         <v>0.1585081350861615</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.1585081350861615</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>50.7599983215332</v>
       </c>
       <c r="F136">
-        <v>28.3864574432373</v>
+        <v>28.38645172119141</v>
       </c>
       <c r="G136">
         <v>432300</v>
@@ -4678,13 +5080,16 @@
         <v>0.02132791835657621</v>
       </c>
       <c r="I136">
-        <v>0.2155172500416318</v>
+        <v>0.04090202030351012</v>
       </c>
       <c r="J136">
         <v>0.2155172500416318</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2155172500416318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4710,13 +5115,16 @@
         <v>0.006698190776804225</v>
       </c>
       <c r="I137">
-        <v>0.2137767298384181</v>
+        <v>0.04089067993749833</v>
       </c>
       <c r="J137">
         <v>0.2137767298384181</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2137767298384181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>49.38000106811523</v>
       </c>
       <c r="F138">
-        <v>27.61471176147461</v>
+        <v>27.61471557617188</v>
       </c>
       <c r="G138">
         <v>262350</v>
@@ -4742,13 +5150,16 @@
         <v>-0.03365944143573563</v>
       </c>
       <c r="I138">
-        <v>0.1430555600933576</v>
+        <v>0.04079724780446323</v>
       </c>
       <c r="J138">
         <v>0.1430555600933576</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.1430555600933576</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>49.47999954223633</v>
       </c>
       <c r="F139">
-        <v>27.67063331604004</v>
+        <v>27.6706371307373</v>
       </c>
       <c r="G139">
         <v>270800</v>
@@ -4774,13 +5185,16 @@
         <v>0.002025080436575122</v>
       </c>
       <c r="I139">
-        <v>0.1209787092530004</v>
+        <v>0.04037105460604658</v>
       </c>
       <c r="J139">
         <v>0.1209787092530004</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.1209787092530004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>51.45999908447266</v>
       </c>
       <c r="F140">
-        <v>28.77791404724121</v>
+        <v>28.77791213989258</v>
       </c>
       <c r="G140">
         <v>154400</v>
@@ -4806,13 +5220,16 @@
         <v>0.04001615926746704</v>
       </c>
       <c r="I140">
-        <v>0.1754225792442821</v>
+        <v>0.03978815048427013</v>
       </c>
       <c r="J140">
         <v>0.1754225792442821</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1754225792442821</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>54.43999862670898</v>
       </c>
       <c r="F141">
-        <v>30.44441413879395</v>
+        <v>30.44441032409668</v>
       </c>
       <c r="G141">
         <v>148250</v>
@@ -4838,13 +5255,16 @@
         <v>0.05790904771188576</v>
       </c>
       <c r="I141">
-        <v>0.1886462780256359</v>
+        <v>0.03993330398842992</v>
       </c>
       <c r="J141">
         <v>0.1886462780256359</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.1886462780256359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="F142">
-        <v>28.65487670898438</v>
+        <v>28.65487861633301</v>
       </c>
       <c r="G142">
         <v>303800</v>
@@ -4870,13 +5290,16 @@
         <v>-0.05878025402212683</v>
       </c>
       <c r="I142">
-        <v>0.08789816005239182</v>
+        <v>0.04034349949757879</v>
       </c>
       <c r="J142">
         <v>0.08789816005239182</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.08789816005239182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>48.15999984741211</v>
       </c>
       <c r="F143">
-        <v>27.87112617492676</v>
+        <v>27.87113380432129</v>
       </c>
       <c r="G143">
         <v>195750</v>
@@ -4902,13 +5325,16 @@
         <v>-0.06010932338335639</v>
       </c>
       <c r="I143">
-        <v>0.02862025120294964</v>
+        <v>0.04074509462922868</v>
       </c>
       <c r="J143">
         <v>0.02862025120294964</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.02862025120294964</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>44.31999969482422</v>
       </c>
       <c r="F144">
-        <v>25.64885139465332</v>
+        <v>25.64884948730469</v>
       </c>
       <c r="G144">
         <v>324750</v>
@@ -4934,13 +5360,16 @@
         <v>-0.07973422269008235</v>
       </c>
       <c r="I144">
-        <v>-0.05982180168299844</v>
+        <v>0.04114742654347353</v>
       </c>
       <c r="J144">
         <v>-0.05982180168299844</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.05982180168299844</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>43.79999923706055</v>
       </c>
       <c r="F145">
-        <v>25.34792137145996</v>
+        <v>25.34791564941406</v>
       </c>
       <c r="G145">
         <v>367050</v>
@@ -4966,13 +5395,16 @@
         <v>-0.01173286239495164</v>
       </c>
       <c r="I145">
-        <v>-0.05684753375789497</v>
+        <v>0.04073114344571396</v>
       </c>
       <c r="J145">
         <v>-0.05684753375789497</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.05684753375789497</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>43.11999893188477</v>
       </c>
       <c r="F146">
-        <v>24.95438575744629</v>
+        <v>24.95438385009766</v>
       </c>
       <c r="G146">
         <v>296600</v>
@@ -4998,13 +5430,16 @@
         <v>-0.01552512139316231</v>
       </c>
       <c r="I146">
-        <v>-0.1042791965394816</v>
+        <v>0.04013838413200647</v>
       </c>
       <c r="J146">
         <v>-0.1042791965394816</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1042791965394816</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F147">
-        <v>26.43590354919434</v>
+        <v>26.43591117858887</v>
       </c>
       <c r="G147">
         <v>869650</v>
@@ -5030,13 +5465,16 @@
         <v>0.05936923554508811</v>
       </c>
       <c r="I147">
-        <v>-0.08088531984010205</v>
+        <v>0.04048161451007531</v>
       </c>
       <c r="J147">
         <v>-0.08088531984010205</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.08088531984010205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>45.58000183105469</v>
       </c>
       <c r="F148">
-        <v>26.37803268432617</v>
+        <v>26.37803077697754</v>
       </c>
       <c r="G148">
         <v>132300</v>
@@ -5062,13 +5500,16 @@
         <v>-0.002189108438113596</v>
       </c>
       <c r="I148">
-        <v>-0.1020487916029161</v>
+        <v>0.04029285223853757</v>
       </c>
       <c r="J148">
         <v>-0.1020487916029161</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.1020487916029161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>41.43999862670898</v>
       </c>
       <c r="F149">
-        <v>24.5295467376709</v>
+        <v>24.52955055236816</v>
       </c>
       <c r="G149">
         <v>576500</v>
@@ -5094,13 +5535,16 @@
         <v>-0.09082937775410582</v>
       </c>
       <c r="I149">
-        <v>-0.1890410985492355</v>
+        <v>0.04107885029593498</v>
       </c>
       <c r="J149">
         <v>-0.1890410985492355</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1890410985492355</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>39.7400016784668</v>
       </c>
       <c r="F150">
-        <v>23.52327346801758</v>
+        <v>23.52326774597168</v>
       </c>
       <c r="G150">
         <v>174550</v>
@@ -5126,13 +5570,16 @@
         <v>-0.0410230937398367</v>
       </c>
       <c r="I150">
-        <v>-0.1952207205575175</v>
+        <v>0.04116188703839415</v>
       </c>
       <c r="J150">
         <v>-0.1952207205575175</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1952207205575175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>38.40000152587891</v>
       </c>
       <c r="F151">
-        <v>22.73008728027344</v>
+        <v>22.7300853729248</v>
       </c>
       <c r="G151">
         <v>164600</v>
@@ -5158,13 +5605,16 @@
         <v>-0.03371917705061322</v>
       </c>
       <c r="I151">
-        <v>-0.2239288221274031</v>
+        <v>0.03917363636879576</v>
       </c>
       <c r="J151">
         <v>-0.2239288221274031</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.2239288221274031</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>33.29999923706055</v>
       </c>
       <c r="F152">
-        <v>19.71124649047852</v>
+        <v>19.71124458312988</v>
       </c>
       <c r="G152">
         <v>978900</v>
@@ -5190,13 +5640,16 @@
         <v>-0.132812554327148</v>
       </c>
       <c r="I152">
-        <v>-0.3528954560920627</v>
+        <v>0.04094480262368627</v>
       </c>
       <c r="J152">
         <v>-0.3528954560920627</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3528954560920627</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5222,13 +5675,16 @@
         <v>-0.1975975998336654</v>
       </c>
       <c r="I153">
-        <v>-0.5091844234499061</v>
+        <v>0.04444140416308121</v>
       </c>
       <c r="J153">
         <v>-0.5091844234499061</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5091844234499061</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5254,13 +5710,16 @@
         <v>-0.06437123344141882</v>
       </c>
       <c r="I154">
-        <v>-0.5120999379181119</v>
+        <v>0.04455242439094447</v>
       </c>
       <c r="J154">
         <v>-0.5120999379181119</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5120999379181119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>24.5</v>
       </c>
       <c r="F155">
-        <v>14.92038631439209</v>
+        <v>14.92038536071777</v>
       </c>
       <c r="G155">
         <v>508200</v>
@@ -5286,13 +5745,16 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="I155">
-        <v>-0.4912790681556343</v>
+        <v>0.04452079233041378</v>
       </c>
       <c r="J155">
         <v>-0.4912790681556343</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4912790681556343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>22.20000076293945</v>
       </c>
       <c r="F156">
-        <v>13.51969814300537</v>
+        <v>13.51969528198242</v>
       </c>
       <c r="G156">
         <v>397600</v>
@@ -5318,13 +5780,16 @@
         <v>-0.09387751988002235</v>
       </c>
       <c r="I156">
-        <v>-0.4990974522607676</v>
+        <v>0.04527360532433763</v>
       </c>
       <c r="J156">
         <v>-0.4990974522607676</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4990974522607676</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5350,13 +5815,16 @@
         <v>-0.09729728708018781</v>
       </c>
       <c r="I157">
-        <v>-0.5424657245525504</v>
+        <v>0.04603994834737253</v>
       </c>
       <c r="J157">
         <v>-0.5424657245525504</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5424657245525504</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F158">
-        <v>12.76454257965088</v>
+        <v>12.76454162597656</v>
       </c>
       <c r="G158">
         <v>393250</v>
@@ -5382,13 +5850,16 @@
         <v>0.04590809016542918</v>
       </c>
       <c r="I158">
-        <v>-0.513914665963177</v>
+        <v>0.04619889174913835</v>
       </c>
       <c r="J158">
         <v>-0.513914665963177</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.513914665963177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>23.45999908447266</v>
       </c>
       <c r="F159">
-        <v>14.28703117370605</v>
+        <v>14.28702926635742</v>
       </c>
       <c r="G159">
         <v>1432550</v>
@@ -5414,13 +5885,16 @@
         <v>0.1192748143701983</v>
       </c>
       <c r="I159">
-        <v>-0.4864273439636007</v>
+        <v>0.04736357947118158</v>
       </c>
       <c r="J159">
         <v>-0.4864273439636007</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4864273439636007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>27.45999908447266</v>
       </c>
       <c r="F160">
-        <v>16.7230110168457</v>
+        <v>16.72301483154297</v>
       </c>
       <c r="G160">
         <v>513600</v>
@@ -5446,13 +5920,16 @@
         <v>0.170502990456102</v>
       </c>
       <c r="I160">
-        <v>-0.3975428262101662</v>
+        <v>0.0497332317203923</v>
       </c>
       <c r="J160">
         <v>-0.3975428262101662</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.3975428262101662</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5478,13 +5955,16 @@
         <v>-0.03787323535515996</v>
       </c>
       <c r="I161">
-        <v>-0.3624517144827877</v>
+        <v>0.04976585792480429</v>
       </c>
       <c r="J161">
         <v>-0.3624517144827877</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3624517144827877</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>28.65999984741211</v>
       </c>
       <c r="F162">
-        <v>17.770751953125</v>
+        <v>17.7707576751709</v>
       </c>
       <c r="G162">
         <v>275700</v>
@@ -5510,13 +5990,16 @@
         <v>0.08478424544472518</v>
       </c>
       <c r="I162">
-        <v>-0.2788123141187085</v>
+        <v>0.05039153622470931</v>
       </c>
       <c r="J162">
         <v>-0.2788123141187085</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.2788123141187085</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5542,13 +6025,16 @@
         <v>0.04326586802930965</v>
       </c>
       <c r="I163">
-        <v>-0.221354207541378</v>
+        <v>0.05040914525385421</v>
       </c>
       <c r="J163">
         <v>-0.221354207541378</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.221354207541378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F164">
-        <v>19.23408317565918</v>
+        <v>19.23408699035645</v>
       </c>
       <c r="G164">
         <v>947600</v>
@@ -5574,13 +6060,16 @@
         <v>0.03745822252583864</v>
       </c>
       <c r="I164">
-        <v>-0.06846843337940378</v>
+        <v>0.05053290373952388</v>
       </c>
       <c r="J164">
         <v>-0.06846843337940378</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.06846843337940378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>30.97999954223633</v>
       </c>
       <c r="F165">
-        <v>19.20928001403809</v>
+        <v>19.20928382873535</v>
       </c>
       <c r="G165">
         <v>476950</v>
@@ -5606,13 +6095,16 @@
         <v>-0.001289520146262046</v>
       </c>
       <c r="I165">
-        <v>0.1594311503875194</v>
+        <v>0.05050127542810654</v>
       </c>
       <c r="J165">
         <v>0.1594311503875194</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.1594311503875194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>32.54000091552734</v>
       </c>
       <c r="F166">
-        <v>20.17656707763672</v>
+        <v>20.17656517028809</v>
       </c>
       <c r="G166">
         <v>439800</v>
@@ -5638,13 +6130,16 @@
         <v>0.05035511285802952</v>
       </c>
       <c r="I166">
-        <v>0.3016000366210938</v>
+        <v>0.05071149991798527</v>
       </c>
       <c r="J166">
         <v>0.3016000366210938</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.3016000366210938</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>32.40000152587891</v>
       </c>
       <c r="F167">
-        <v>20.32476425170898</v>
+        <v>20.32476615905762</v>
       </c>
       <c r="G167">
         <v>119550</v>
@@ -5670,13 +6165,16 @@
         <v>-0.004302378171772925</v>
       </c>
       <c r="I167">
-        <v>0.3224490418726085</v>
+        <v>0.05064812720563527</v>
       </c>
       <c r="J167">
         <v>0.3224490418726085</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.3224490418726085</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>30.86000061035156</v>
       </c>
       <c r="F168">
-        <v>19.35870933532715</v>
+        <v>19.35871315002441</v>
       </c>
       <c r="G168">
         <v>693950</v>
@@ -5702,13 +6200,16 @@
         <v>-0.04753089021607904</v>
       </c>
       <c r="I168">
-        <v>0.390090069810676</v>
+        <v>0.05016169432539723</v>
       </c>
       <c r="J168">
         <v>0.390090069810676</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.390090069810676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>30.60000038146973</v>
       </c>
       <c r="F169">
-        <v>19.19561195373535</v>
+        <v>19.19561004638672</v>
       </c>
       <c r="G169">
         <v>255300</v>
@@ -5734,13 +6235,16 @@
         <v>-0.008425153069978264</v>
       </c>
       <c r="I169">
-        <v>0.5269460570613202</v>
+        <v>0.05014695401791812</v>
       </c>
       <c r="J169">
         <v>0.5269460570613202</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.5269460570613202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>32.54000091552734</v>
       </c>
       <c r="F170">
-        <v>20.4125862121582</v>
+        <v>20.41258811950684</v>
       </c>
       <c r="G170">
         <v>571150</v>
@@ -5766,13 +6270,16 @@
         <v>0.06339870947297155</v>
       </c>
       <c r="I170">
-        <v>0.5524810275222412</v>
+        <v>0.05012794166652509</v>
       </c>
       <c r="J170">
         <v>0.5524810275222412</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.5524810275222412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>31.84000015258789</v>
       </c>
       <c r="F171">
-        <v>19.97346878051758</v>
+        <v>19.97347068786621</v>
       </c>
       <c r="G171">
         <v>698350</v>
@@ -5798,13 +6305,16 @@
         <v>-0.02151200808987774</v>
       </c>
       <c r="I171">
-        <v>0.3572038105347439</v>
+        <v>0.05003587503977108</v>
       </c>
       <c r="J171">
         <v>0.3572038105347439</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.3572038105347439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>28.34000015258789</v>
       </c>
       <c r="F172">
-        <v>17.77789306640625</v>
+        <v>17.77789878845215</v>
       </c>
       <c r="G172">
         <v>1058850</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1099246225887824</v>
       </c>
       <c r="I172">
-        <v>0.03204665322122446</v>
+        <v>0.05092954668594522</v>
       </c>
       <c r="J172">
         <v>0.03204665322122446</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.03204665322122446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F173">
-        <v>17.15884590148926</v>
+        <v>17.15884780883789</v>
       </c>
       <c r="G173">
         <v>384300</v>
@@ -5862,13 +6375,16 @@
         <v>-0.05151732476924376</v>
       </c>
       <c r="I173">
-        <v>0.01741101753006435</v>
+        <v>0.05111909028565237</v>
       </c>
       <c r="J173">
         <v>0.01741101753006435</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.01741101753006435</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>30.78000068664551</v>
       </c>
       <c r="F174">
-        <v>19.64841270446777</v>
+        <v>19.64841461181641</v>
       </c>
       <c r="G174">
         <v>2254250</v>
@@ -5894,13 +6410,16 @@
         <v>0.1450893470105183</v>
       </c>
       <c r="I174">
-        <v>0.07397072053455811</v>
+        <v>0.05284502153064718</v>
       </c>
       <c r="J174">
         <v>0.07397072053455811</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.07397072053455811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5926,13 +6445,16 @@
         <v>-0.02794024012886687</v>
       </c>
       <c r="I175">
-        <v>0.0006689116394260619</v>
+        <v>0.05278626843713018</v>
       </c>
       <c r="J175">
         <v>0.0006689116394260619</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.0006689116394260619</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>32.72000122070312</v>
       </c>
       <c r="F176">
-        <v>20.88681030273438</v>
+        <v>20.88681602478027</v>
       </c>
       <c r="G176">
         <v>619100</v>
@@ -5958,13 +6480,16 @@
         <v>0.09358292571087468</v>
       </c>
       <c r="I176">
-        <v>0.05480337646203925</v>
+        <v>0.0534022441280966</v>
       </c>
       <c r="J176">
         <v>0.05480337646203925</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.05480337646203925</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5990,13 +6515,16 @@
         <v>0.04217595360432913</v>
       </c>
       <c r="I177">
-        <v>0.1007101025818655</v>
+        <v>0.05347890631560843</v>
       </c>
       <c r="J177">
         <v>0.1007101025818655</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1007101025818655</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>32.31999969482422</v>
       </c>
       <c r="F178">
-        <v>20.63147163391113</v>
+        <v>20.63147354125977</v>
       </c>
       <c r="G178">
         <v>1640650</v>
@@ -6022,13 +6550,16 @@
         <v>-0.05219938002776559</v>
       </c>
       <c r="I178">
-        <v>-0.006760946973364934</v>
+        <v>0.05339721609217069</v>
       </c>
       <c r="J178">
         <v>-0.006760946973364934</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.006760946973364934</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>34.7400016784668</v>
       </c>
       <c r="F179">
-        <v>22.3998851776123</v>
+        <v>22.3998908996582</v>
       </c>
       <c r="G179">
         <v>463150</v>
@@ -6054,13 +6585,16 @@
         <v>0.07487629970584808</v>
       </c>
       <c r="I179">
-        <v>0.0722222235304173</v>
+        <v>0.05379048637838273</v>
       </c>
       <c r="J179">
         <v>0.0722222235304173</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.0722222235304173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>35.11999893188477</v>
       </c>
       <c r="F180">
-        <v>22.6449089050293</v>
+        <v>22.6449031829834</v>
       </c>
       <c r="G180">
         <v>1781900</v>
@@ -6086,13 +6620,16 @@
         <v>0.01093831994986649</v>
       </c>
       <c r="I180">
-        <v>0.138042716697298</v>
+        <v>0.05378940826136257</v>
       </c>
       <c r="J180">
         <v>0.138042716697298</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.138042716697298</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>36.72000122070312</v>
       </c>
       <c r="F181">
-        <v>23.67656707763672</v>
+        <v>23.67656517028809</v>
       </c>
       <c r="G181">
         <v>597950</v>
@@ -6118,13 +6655,16 @@
         <v>0.04555815311730393</v>
       </c>
       <c r="I181">
-        <v>0.2000000249326614</v>
+        <v>0.05360146501196861</v>
       </c>
       <c r="J181">
         <v>0.2000000249326614</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.2000000249326614</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F182">
-        <v>23.09625625610352</v>
+        <v>23.09625434875488</v>
       </c>
       <c r="G182">
         <v>878400</v>
@@ -6150,13 +6690,16 @@
         <v>-0.02450984466121087</v>
       </c>
       <c r="I182">
-        <v>0.100798976245011</v>
+        <v>0.05334743065324616</v>
       </c>
       <c r="J182">
         <v>0.100798976245011</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.100798976245011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>38.22000122070312</v>
       </c>
       <c r="F183">
-        <v>24.64373970031738</v>
+        <v>24.64374351501465</v>
       </c>
       <c r="G183">
         <v>659150</v>
@@ -6182,13 +6725,16 @@
         <v>0.06700171821122858</v>
       </c>
       <c r="I183">
-        <v>0.2003769170081704</v>
+        <v>0.05339750103337471</v>
       </c>
       <c r="J183">
         <v>0.2003769170081704</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2003769170081704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>37.31999969482422</v>
       </c>
       <c r="F184">
-        <v>24.06343460083008</v>
+        <v>24.06344032287598</v>
       </c>
       <c r="G184">
         <v>667900</v>
@@ -6214,13 +6760,16 @@
         <v>-0.02354791986221583</v>
       </c>
       <c r="I184">
-        <v>0.3168666017602795</v>
+        <v>0.05340044061693217</v>
       </c>
       <c r="J184">
         <v>0.3168666017602795</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3168666017602795</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6246,13 +6795,16 @@
         <v>-0.04555200366668866</v>
       </c>
       <c r="I185">
-        <v>0.3251488111604877</v>
+        <v>0.05348863803934339</v>
       </c>
       <c r="J185">
         <v>0.3251488111604877</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3251488111604877</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>35.47999954223633</v>
       </c>
       <c r="F186">
-        <v>23.27228736877441</v>
+        <v>23.27228927612305</v>
       </c>
       <c r="G186">
         <v>504500</v>
@@ -6278,13 +6830,16 @@
         <v>-0.003930359175926879</v>
       </c>
       <c r="I186">
-        <v>0.1526965156186628</v>
+        <v>0.0534737465989804</v>
       </c>
       <c r="J186">
         <v>0.1526965156186628</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1526965156186628</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>32.7599983215332</v>
       </c>
       <c r="F187">
-        <v>21.48816871643066</v>
+        <v>21.48816680908203</v>
       </c>
       <c r="G187">
         <v>530650</v>
@@ -6310,13 +6865,16 @@
         <v>-0.07666294407544072</v>
       </c>
       <c r="I187">
-        <v>0.09491972720579733</v>
+        <v>0.05390849130334546</v>
       </c>
       <c r="J187">
         <v>0.09491972720579733</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.09491972720579733</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>29.54000091552734</v>
       </c>
       <c r="F188">
-        <v>19.37608528137207</v>
+        <v>19.37608337402344</v>
       </c>
       <c r="G188">
         <v>821500</v>
@@ -6342,13 +6900,16 @@
         <v>-0.09829052414478756</v>
       </c>
       <c r="I188">
-        <v>-0.0971882697597114</v>
+        <v>0.05419617522563043</v>
       </c>
       <c r="J188">
         <v>-0.0971882697597114</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.0971882697597114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>33.36000061035156</v>
       </c>
       <c r="F189">
-        <v>21.8817310333252</v>
+        <v>21.88172149658203</v>
       </c>
       <c r="G189">
         <v>1351500</v>
@@ -6374,13 +6935,16 @@
         <v>0.1293161671100789</v>
       </c>
       <c r="I189">
-        <v>-0.02170081809039159</v>
+        <v>0.05540965291117879</v>
       </c>
       <c r="J189">
         <v>-0.02170081809039159</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.02170081809039159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>32.81999969482422</v>
       </c>
       <c r="F190">
-        <v>21.52752304077148</v>
+        <v>21.52752494812012</v>
       </c>
       <c r="G190">
         <v>1135850</v>
@@ -6406,13 +6970,16 @@
         <v>-0.0161870775074201</v>
       </c>
       <c r="I190">
-        <v>0.01547029717577852</v>
+        <v>0.0554312953067894</v>
       </c>
       <c r="J190">
         <v>0.01547029717577852</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>0.01547029717577852</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>32.31999969482422</v>
       </c>
       <c r="F191">
-        <v>21.51696014404297</v>
+        <v>21.51695823669434</v>
       </c>
       <c r="G191">
         <v>332200</v>
@@ -6438,13 +7005,16 @@
         <v>-0.01523461318248731</v>
       </c>
       <c r="I191">
-        <v>-0.06966038764306071</v>
+        <v>0.05543672707421602</v>
       </c>
       <c r="J191">
         <v>-0.06966038764306071</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.06966038764306071</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>33.36000061035156</v>
       </c>
       <c r="F192">
-        <v>22.20934104919434</v>
+        <v>22.2093334197998</v>
       </c>
       <c r="G192">
         <v>2113550</v>
@@ -6470,13 +7040,16 @@
         <v>0.03217824645257927</v>
       </c>
       <c r="I192">
-        <v>-0.05011384894819382</v>
+        <v>0.05539345960998492</v>
       </c>
       <c r="J192">
         <v>-0.05011384894819382</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.05011384894819382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>35.06000137329102</v>
       </c>
       <c r="F193">
-        <v>23.34110450744629</v>
+        <v>23.34110832214355</v>
       </c>
       <c r="G193">
         <v>830050</v>
@@ -6502,13 +7075,16 @@
         <v>0.05095925455145056</v>
       </c>
       <c r="I193">
-        <v>-0.04520696601927632</v>
+        <v>0.0555379116030697</v>
       </c>
       <c r="J193">
         <v>-0.04520696601927632</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.04520696601927632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>34.59999847412109</v>
       </c>
       <c r="F194">
-        <v>23.03486061096191</v>
+        <v>23.03485679626465</v>
       </c>
       <c r="G194">
         <v>725000</v>
@@ -6534,13 +7110,16 @@
         <v>-0.01312044726616457</v>
       </c>
       <c r="I194">
-        <v>-0.03405921918194232</v>
+        <v>0.05538008958283112</v>
       </c>
       <c r="J194">
         <v>-0.03405921918194232</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.03405921918194232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>35.09999847412109</v>
       </c>
       <c r="F195">
-        <v>23.36773872375488</v>
+        <v>23.36773681640625</v>
       </c>
       <c r="G195">
         <v>578850</v>
@@ -6566,13 +7145,16 @@
         <v>0.01445086768931425</v>
       </c>
       <c r="I195">
-        <v>-0.08163272231639751</v>
+        <v>0.05538935420179358</v>
       </c>
       <c r="J195">
         <v>-0.08163272231639751</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.08163272231639751</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>31.10000038146973</v>
       </c>
       <c r="F196">
-        <v>20.70474433898926</v>
+        <v>20.70474243164062</v>
       </c>
       <c r="G196">
         <v>998250</v>
@@ -6598,13 +7180,16 @@
         <v>-0.113960064573807</v>
       </c>
       <c r="I196">
-        <v>-0.1666666496306838</v>
+        <v>0.0563734963639506</v>
       </c>
       <c r="J196">
         <v>-0.1666666496306838</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.1666666496306838</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>32.58000183105469</v>
       </c>
       <c r="F197">
-        <v>22.2040843963623</v>
+        <v>22.2040901184082</v>
       </c>
       <c r="G197">
         <v>481100</v>
@@ -6630,13 +7215,16 @@
         <v>0.04758847046403214</v>
       </c>
       <c r="I197">
-        <v>-0.08534523279024764</v>
+        <v>0.05639759561460354</v>
       </c>
       <c r="J197">
         <v>-0.08534523279024764</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.08534523279024764</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6662,13 +7250,16 @@
         <v>0.008594191637828041</v>
       </c>
       <c r="I198">
-        <v>-0.07384439023923461</v>
+        <v>0.056124190011665</v>
       </c>
       <c r="J198">
         <v>-0.07384439023923461</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.07384439023923461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6694,13 +7285,16 @@
         <v>0.03286664626589197</v>
       </c>
       <c r="I199">
-        <v>0.03601954718050648</v>
+        <v>0.05615171106567059</v>
       </c>
       <c r="J199">
         <v>0.03601954718050648</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>0.03601954718050648</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="F200">
-        <v>23.71707344055176</v>
+        <v>23.71706771850586</v>
       </c>
       <c r="G200">
         <v>542300</v>
@@ -6726,13 +7320,16 @@
         <v>0.02533885224364107</v>
       </c>
       <c r="I200">
-        <v>0.1780635801797943</v>
+        <v>0.05550037614080779</v>
       </c>
       <c r="J200">
         <v>0.1780635801797943</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1780635801797943</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6758,13 +7355,16 @@
         <v>0.004597696865513701</v>
       </c>
       <c r="I201">
-        <v>0.04796158407816753</v>
+        <v>0.05535308302552908</v>
       </c>
       <c r="J201">
         <v>0.04796158407816753</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.04796158407816753</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>35.36000061035156</v>
       </c>
       <c r="F202">
-        <v>24.09872436523438</v>
+        <v>24.09872627258301</v>
       </c>
       <c r="G202">
         <v>345800</v>
@@ -6790,13 +7390,16 @@
         <v>0.0114416915433091</v>
       </c>
       <c r="I202">
-        <v>0.0773918628624457</v>
+        <v>0.05523222587472033</v>
       </c>
       <c r="J202">
         <v>0.0773918628624457</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.0773918628624457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>35.88000106811523</v>
       </c>
       <c r="F203">
-        <v>24.80093574523926</v>
+        <v>24.80093193054199</v>
       </c>
       <c r="G203">
         <v>451900</v>
@@ -6822,13 +7425,16 @@
         <v>0.01470589504490682</v>
       </c>
       <c r="I203">
-        <v>0.110148558381983</v>
+        <v>0.05500097827131498</v>
       </c>
       <c r="J203">
         <v>0.110148558381983</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.110148558381983</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>36.93999862670898</v>
       </c>
       <c r="F204">
-        <v>25.53362274169922</v>
+        <v>25.53362464904785</v>
       </c>
       <c r="G204">
         <v>618850</v>
@@ -6854,13 +7460,16 @@
         <v>0.02954285192415207</v>
       </c>
       <c r="I204">
-        <v>0.1073140872559384</v>
+        <v>0.05490606338779121</v>
       </c>
       <c r="J204">
         <v>0.1073140872559384</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1073140872559384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F205">
-        <v>24.8424072265625</v>
+        <v>24.84240341186523</v>
       </c>
       <c r="G205">
         <v>1226300</v>
@@ -6886,13 +7495,16 @@
         <v>-0.02707092683205903</v>
       </c>
       <c r="I205">
-        <v>0.02509974954217653</v>
+        <v>0.05476908824018015</v>
       </c>
       <c r="J205">
         <v>0.02509974954217653</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.02509974954217653</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>36.54000091552734</v>
       </c>
       <c r="F206">
-        <v>25.25713920593262</v>
+        <v>25.25714111328125</v>
       </c>
       <c r="G206">
         <v>381850</v>
@@ -6918,13 +7530,16 @@
         <v>0.01669455514036855</v>
       </c>
       <c r="I206">
-        <v>0.0560694371954169</v>
+        <v>0.05477535089408156</v>
       </c>
       <c r="J206">
         <v>0.0560694371954169</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.0560694371954169</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>37.58000183105469</v>
       </c>
       <c r="F207">
-        <v>25.97600555419922</v>
+        <v>25.97600746154785</v>
       </c>
       <c r="G207">
         <v>666150</v>
@@ -6950,13 +7565,16 @@
         <v>0.02846198383879628</v>
       </c>
       <c r="I207">
-        <v>0.07065536936595818</v>
+        <v>0.05400361465057439</v>
       </c>
       <c r="J207">
         <v>0.07065536936595818</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.07065536936595818</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>37.54000091552734</v>
       </c>
       <c r="F208">
-        <v>25.94836044311523</v>
+        <v>25.94835472106934</v>
       </c>
       <c r="G208">
         <v>498600</v>
@@ -6982,13 +7600,16 @@
         <v>-0.001064420265522448</v>
       </c>
       <c r="I208">
-        <v>0.2070739696162434</v>
+        <v>0.05376041678522929</v>
       </c>
       <c r="J208">
         <v>0.2070739696162434</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.2070739696162434</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>35.31999969482422</v>
       </c>
       <c r="F209">
-        <v>24.77568244934082</v>
+        <v>24.77568054199219</v>
       </c>
       <c r="G209">
         <v>1471100</v>
@@ -7014,13 +7635,16 @@
         <v>-0.05913695169317068</v>
       </c>
       <c r="I209">
-        <v>0.08410060496552263</v>
+        <v>0.05407309547442565</v>
       </c>
       <c r="J209">
         <v>0.08410060496552263</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.08410060496552263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>37.58000183105469</v>
       </c>
       <c r="F210">
-        <v>26.36098670959473</v>
+        <v>26.36098861694336</v>
       </c>
       <c r="G210">
         <v>2214350</v>
@@ -7046,13 +7670,16 @@
         <v>0.06398647100106425</v>
       </c>
       <c r="I210">
-        <v>0.1436397179863786</v>
+        <v>0.05433244183624866</v>
       </c>
       <c r="J210">
         <v>0.1436397179863786</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.1436397179863786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>37.29999923706055</v>
       </c>
       <c r="F211">
-        <v>26.16457366943359</v>
+        <v>26.16458320617676</v>
       </c>
       <c r="G211">
         <v>394600</v>
@@ -7078,13 +7705,16 @@
         <v>-0.007450840349953247</v>
       </c>
       <c r="I211">
-        <v>0.09899825416337582</v>
+        <v>0.05434284474347307</v>
       </c>
       <c r="J211">
         <v>0.09899825416337582</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.09899825416337582</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>39.2400016784668</v>
       </c>
       <c r="F212">
-        <v>27.52542304992676</v>
+        <v>27.52542114257812</v>
       </c>
       <c r="G212">
         <v>1550100</v>
@@ -7110,13 +7740,16 @@
         <v>0.05201079037767653</v>
       </c>
       <c r="I212">
-        <v>0.1275862798490477</v>
+        <v>0.05446372439191908</v>
       </c>
       <c r="J212">
         <v>0.1275862798490477</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.1275862798490477</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>40.70000076293945</v>
       </c>
       <c r="F213">
-        <v>28.54955291748047</v>
+        <v>28.54955863952637</v>
       </c>
       <c r="G213">
         <v>957700</v>
@@ -7142,13 +7775,16 @@
         <v>0.03720690677936034</v>
       </c>
       <c r="I213">
-        <v>0.1641876953313821</v>
+        <v>0.05411638563086294</v>
       </c>
       <c r="J213">
         <v>0.1641876953313821</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.1641876953313821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>41.02000045776367</v>
       </c>
       <c r="F214">
-        <v>28.77402496337891</v>
+        <v>28.77402114868164</v>
       </c>
       <c r="G214">
         <v>598200</v>
@@ -7174,13 +7810,16 @@
         <v>0.007862400216847254</v>
       </c>
       <c r="I214">
-        <v>0.1600678662249557</v>
+        <v>0.05408863566140678</v>
       </c>
       <c r="J214">
         <v>0.1600678662249557</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.1600678662249557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F215">
-        <v>29.64527893066406</v>
+        <v>29.64528465270996</v>
       </c>
       <c r="G215">
         <v>760950</v>
@@ -7206,13 +7845,16 @@
         <v>0.01803992821822309</v>
       </c>
       <c r="I215">
-        <v>0.1638795172345529</v>
+        <v>0.05392502485660385</v>
       </c>
       <c r="J215">
         <v>0.1638795172345529</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.1638795172345529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>39.81999969482422</v>
       </c>
       <c r="F216">
-        <v>28.26808738708496</v>
+        <v>28.26808547973633</v>
       </c>
       <c r="G216">
         <v>1779300</v>
@@ -7238,13 +7880,16 @@
         <v>-0.04645590767920693</v>
       </c>
       <c r="I216">
-        <v>0.07796429819119943</v>
+        <v>0.05411482537180024</v>
       </c>
       <c r="J216">
         <v>0.07796429819119943</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.07796429819119943</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>42.52000045776367</v>
       </c>
       <c r="F217">
-        <v>30.18479919433594</v>
+        <v>30.18480491638184</v>
       </c>
       <c r="G217">
         <v>1331350</v>
@@ -7270,13 +7915,16 @@
         <v>0.06780514273309746</v>
       </c>
       <c r="I217">
-        <v>0.1830829739143265</v>
+        <v>0.0542832091342298</v>
       </c>
       <c r="J217">
         <v>0.1830829739143265</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1830829739143265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>41.18000030517578</v>
       </c>
       <c r="F218">
-        <v>29.23354721069336</v>
+        <v>29.23353958129883</v>
       </c>
       <c r="G218">
         <v>1516600</v>
@@ -7302,13 +7950,16 @@
         <v>-0.03151458462280476</v>
       </c>
       <c r="I218">
-        <v>0.1269841070988236</v>
+        <v>0.05431972319203923</v>
       </c>
       <c r="J218">
         <v>0.1269841070988236</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.1269841070988236</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>43.04000091552734</v>
       </c>
       <c r="F219">
-        <v>30.5539493560791</v>
+        <v>30.55394744873047</v>
       </c>
       <c r="G219">
         <v>1903800</v>
@@ -7334,13 +7985,16 @@
         <v>0.04516757155336371</v>
       </c>
       <c r="I219">
-        <v>0.1452900164565911</v>
+        <v>0.05441927221867486</v>
       </c>
       <c r="J219">
         <v>0.1452900164565911</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.1452900164565911</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>43.45999908447266</v>
       </c>
       <c r="F220">
-        <v>30.85210418701172</v>
+        <v>30.85210990905762</v>
       </c>
       <c r="G220">
         <v>2240250</v>
@@ -7366,13 +8020,16 @@
         <v>0.009758321561600836</v>
       </c>
       <c r="I220">
-        <v>0.1576984023592998</v>
+        <v>0.05440256044190901</v>
       </c>
       <c r="J220">
         <v>0.1576984023592998</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1576984023592998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F221">
-        <v>31.10104179382324</v>
+        <v>31.10104942321777</v>
       </c>
       <c r="G221">
         <v>918150</v>
@@ -7398,13 +8055,16 @@
         <v>-0.03911644727914476</v>
       </c>
       <c r="I221">
-        <v>0.1823329185264035</v>
+        <v>0.0545342203712637</v>
       </c>
       <c r="J221">
         <v>0.1823329185264035</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1823329185264035</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>40.7599983215332</v>
       </c>
       <c r="F222">
-        <v>30.35628318786621</v>
+        <v>30.35629081726074</v>
       </c>
       <c r="G222">
         <v>4503250</v>
@@ -7430,13 +8090,16 @@
         <v>-0.02394636111573689</v>
       </c>
       <c r="I222">
-        <v>0.08461938093496002</v>
+        <v>0.05453597921772914</v>
       </c>
       <c r="J222">
         <v>0.08461938093496002</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.08461938093496002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7462,13 +8125,16 @@
         <v>0.007850920576520926</v>
       </c>
       <c r="I223">
-        <v>0.1013405541906394</v>
+        <v>0.05453267698023407</v>
       </c>
       <c r="J223">
         <v>0.1013405541906394</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1013405541906394</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>38.7599983215332</v>
       </c>
       <c r="F224">
-        <v>28.86677360534668</v>
+        <v>28.86677551269531</v>
       </c>
       <c r="G224">
         <v>3795400</v>
@@ -7494,13 +8160,16 @@
         <v>-0.05647525331334491</v>
       </c>
       <c r="I224">
-        <v>-0.01223250092766937</v>
+        <v>0.05477459664511753</v>
       </c>
       <c r="J224">
         <v>-0.01223250092766937</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.01223250092766937</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>38.02000045776367</v>
       </c>
       <c r="F225">
-        <v>28.31565093994141</v>
+        <v>28.3156566619873</v>
       </c>
       <c r="G225">
         <v>1104950</v>
@@ -7526,13 +8195,16 @@
         <v>-0.0190917929776695</v>
       </c>
       <c r="I225">
-        <v>-0.06584767211149867</v>
+        <v>0.05475909581357125</v>
       </c>
       <c r="J225">
         <v>-0.06584767211149867</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.06584767211149867</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>38.06000137329102</v>
       </c>
       <c r="F226">
-        <v>28.34544944763184</v>
+        <v>28.3454475402832</v>
       </c>
       <c r="G226">
         <v>443200</v>
@@ -7558,13 +8230,16 @@
         <v>0.00105210192124483</v>
       </c>
       <c r="I226">
-        <v>-0.07215989886495555</v>
+        <v>0.05452795410236996</v>
       </c>
       <c r="J226">
         <v>-0.07215989886495555</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.07215989886495555</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7590,13 +8265,16 @@
         <v>-0.05254860556582952</v>
       </c>
       <c r="I227">
-        <v>-0.1364941852812056</v>
+        <v>0.05473315842819992</v>
       </c>
       <c r="J227">
         <v>-0.1364941852812056</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1364941852812056</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F228">
-        <v>27.40793609619141</v>
+        <v>27.40794372558594</v>
       </c>
       <c r="G228">
         <v>1316450</v>
@@ -7622,13 +8300,16 @@
         <v>0.0005546438436490053</v>
       </c>
       <c r="I228">
-        <v>-0.09392259900633937</v>
+        <v>0.05468171322708927</v>
       </c>
       <c r="J228">
         <v>-0.09392259900633937</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.09392259900633937</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F229">
-        <v>29.01838302612305</v>
+        <v>29.01837730407715</v>
       </c>
       <c r="G229">
         <v>827750</v>
@@ -7654,13 +8335,16 @@
         <v>0.05875828226982094</v>
       </c>
       <c r="I229">
-        <v>-0.1015992391419515</v>
+        <v>0.05473205411198399</v>
       </c>
       <c r="J229">
         <v>-0.1015992391419515</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.1015992391419515</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>36.02000045776367</v>
       </c>
       <c r="F230">
-        <v>27.36236000061035</v>
+        <v>27.36235809326172</v>
       </c>
       <c r="G230">
         <v>1308000</v>
@@ -7686,13 +8370,16 @@
         <v>-0.05706806967634293</v>
       </c>
       <c r="I230">
-        <v>-0.1253035407764085</v>
+        <v>0.05494467442955232</v>
       </c>
       <c r="J230">
         <v>-0.1253035407764085</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.1253035407764085</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>38.41999816894531</v>
       </c>
       <c r="F231">
-        <v>29.18550491333008</v>
+        <v>29.18549537658691</v>
       </c>
       <c r="G231">
         <v>1329500</v>
@@ -7718,13 +8405,16 @@
         <v>0.06662958580458178</v>
       </c>
       <c r="I231">
-        <v>-0.1073420689662508</v>
+        <v>0.05525052703493798</v>
       </c>
       <c r="J231">
         <v>-0.1073420689662508</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.1073420689662508</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>38.65999984741211</v>
       </c>
       <c r="F232">
-        <v>29.36781692504883</v>
+        <v>29.36782073974609</v>
       </c>
       <c r="G232">
         <v>1405650</v>
@@ -7750,13 +8440,16 @@
         <v>0.006246790471239327</v>
       </c>
       <c r="I232">
-        <v>-0.1104463722544229</v>
+        <v>0.0552441972623923</v>
       </c>
       <c r="J232">
         <v>-0.1104463722544229</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1104463722544229</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>36.5</v>
       </c>
       <c r="F233">
-        <v>28.23248863220215</v>
+        <v>28.23249244689941</v>
       </c>
       <c r="G233">
         <v>1430600</v>
@@ -7782,13 +8475,16 @@
         <v>-0.05587169829119121</v>
       </c>
       <c r="I233">
-        <v>-0.1259578192756039</v>
+        <v>0.05549137251267042</v>
       </c>
       <c r="J233">
         <v>-0.1259578192756039</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.1259578192756039</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>37.08000183105469</v>
       </c>
       <c r="F234">
-        <v>28.68111419677734</v>
+        <v>28.68112182617188</v>
       </c>
       <c r="G234">
         <v>807750</v>
@@ -7814,13 +8510,16 @@
         <v>0.01589046112478587</v>
       </c>
       <c r="I234">
-        <v>-0.09028451035373086</v>
+        <v>0.05550428689824451</v>
       </c>
       <c r="J234">
         <v>-0.09028451035373086</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.09028451035373086</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F235">
-        <v>26.39157485961914</v>
+        <v>26.39157867431641</v>
       </c>
       <c r="G235">
         <v>2375000</v>
@@ -7846,13 +8545,16 @@
         <v>-0.07982747446066485</v>
       </c>
       <c r="I235">
-        <v>-0.1694255742196307</v>
+        <v>0.05588814872949678</v>
       </c>
       <c r="J235">
         <v>-0.1694255742196307</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.1694255742196307</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>32.77999877929688</v>
       </c>
       <c r="F236">
-        <v>25.35509490966797</v>
+        <v>25.35509300231934</v>
       </c>
       <c r="G236">
         <v>1649200</v>
@@ -7878,13 +8580,16 @@
         <v>-0.03927315927714392</v>
       </c>
       <c r="I236">
-        <v>-0.1542827606087415</v>
+        <v>0.05600371661119542</v>
       </c>
       <c r="J236">
         <v>-0.1542827606087415</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.1542827606087415</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.06589383550484817</v>
       </c>
       <c r="I237">
-        <v>-0.08101004192454586</v>
+        <v>0.05627471479626656</v>
       </c>
       <c r="J237">
         <v>-0.08101004192454586</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.08101004192454586</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>34.36000061035156</v>
       </c>
       <c r="F238">
-        <v>26.57721519470215</v>
+        <v>26.57721328735352</v>
       </c>
       <c r="G238">
         <v>1056950</v>
@@ -7942,13 +8650,16 @@
         <v>-0.01659982939764792</v>
       </c>
       <c r="I238">
-        <v>-0.09721494034248679</v>
+        <v>0.05629790308789766</v>
       </c>
       <c r="J238">
         <v>-0.09721494034248679</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.09721494034248679</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7974,13 +8685,16 @@
         <v>-0.06053555861777404</v>
       </c>
       <c r="I239">
-        <v>-0.1048253591247481</v>
+        <v>0.05657672895983001</v>
       </c>
       <c r="J239">
         <v>-0.1048253591247481</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.1048253591247481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F240">
-        <v>24.23923110961914</v>
+        <v>24.23923492431641</v>
       </c>
       <c r="G240">
         <v>2552250</v>
@@ -8006,13 +8720,16 @@
         <v>-0.04832712282947504</v>
       </c>
       <c r="I240">
-        <v>-0.1485588205565651</v>
+        <v>0.05647501885127249</v>
       </c>
       <c r="J240">
         <v>-0.1485588205565651</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1485588205565651</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8038,13 +8755,16 @@
         <v>-0.03124997089616888</v>
       </c>
       <c r="I241">
-        <v>-0.220942417944815</v>
+        <v>0.0565430826845521</v>
       </c>
       <c r="J241">
         <v>-0.220942417944815</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.220942417944815</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8070,13 +8790,16 @@
         <v>0.05376345326492782</v>
       </c>
       <c r="I242">
-        <v>-0.1293725649136604</v>
+        <v>0.05669919476654313</v>
       </c>
       <c r="J242">
         <v>-0.1293725649136604</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1293725649136604</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>32.61999893188477</v>
       </c>
       <c r="F243">
-        <v>25.7384033203125</v>
+        <v>25.73840713500977</v>
       </c>
       <c r="G243">
         <v>1360200</v>
@@ -8102,13 +8825,16 @@
         <v>0.04017851712404918</v>
       </c>
       <c r="I243">
-        <v>-0.1509630274201486</v>
+        <v>0.05651304712401688</v>
       </c>
       <c r="J243">
         <v>-0.1509630274201486</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1509630274201486</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>32.2400016784668</v>
       </c>
       <c r="F244">
-        <v>25.43857192993164</v>
+        <v>25.43857002258301</v>
       </c>
       <c r="G244">
         <v>2366600</v>
@@ -8134,13 +8860,16 @@
         <v>-0.01164921109321482</v>
       </c>
       <c r="I244">
-        <v>-0.1660630676224657</v>
+        <v>0.05647199133880646</v>
       </c>
       <c r="J244">
         <v>-0.1660630676224657</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1660630676224657</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>-0.04652611132928353</v>
       </c>
       <c r="I245">
-        <v>-0.1578082254488175</v>
+        <v>0.0566215461920239</v>
       </c>
       <c r="J245">
         <v>-0.1578082254488175</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1578082254488175</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>31.20000076293945</v>
       </c>
       <c r="F246">
-        <v>25.23065185546875</v>
+        <v>25.23064994812012</v>
       </c>
       <c r="G246">
         <v>1756050</v>
@@ -8198,13 +8930,16 @@
         <v>0.01496424838146826</v>
       </c>
       <c r="I246">
-        <v>-0.1585760727549561</v>
+        <v>0.05658573929400686</v>
       </c>
       <c r="J246">
         <v>-0.1585760727549561</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.1585760727549561</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>31.54000091552734</v>
       </c>
       <c r="F247">
-        <v>25.50560188293457</v>
+        <v>25.5055980682373</v>
       </c>
       <c r="G247">
         <v>883900</v>
@@ -8230,13 +8965,16 @@
         <v>0.01089744052159625</v>
       </c>
       <c r="I247">
-        <v>-0.07561541902471869</v>
+        <v>0.05655753960127764</v>
       </c>
       <c r="J247">
         <v>-0.07561541902471869</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.07561541902471869</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8262,13 +9000,16 @@
         <v>0.004438788382517656</v>
       </c>
       <c r="I248">
-        <v>-0.03355700168042197</v>
+        <v>0.05655619930959507</v>
       </c>
       <c r="J248">
         <v>-0.03355700168042197</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>-0.03355700168042197</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>30</v>
       </c>
       <c r="F249">
-        <v>24.2602424621582</v>
+        <v>24.26024055480957</v>
       </c>
       <c r="G249">
         <v>2849700</v>
@@ -8294,13 +9035,16 @@
         <v>-0.05303031215253207</v>
       </c>
       <c r="I249">
-        <v>-0.1413851980787638</v>
+        <v>0.05658481054620181</v>
       </c>
       <c r="J249">
         <v>-0.1413851980787638</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.1413851980787638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>30.05999946594238</v>
       </c>
       <c r="F250">
-        <v>24.30875778198242</v>
+        <v>24.30876350402832</v>
       </c>
       <c r="G250">
         <v>2239200</v>
@@ -8326,13 +9070,16 @@
         <v>0.001999982198079397</v>
       </c>
       <c r="I250">
-        <v>-0.1251455491276601</v>
+        <v>0.05651730359246217</v>
       </c>
       <c r="J250">
         <v>-0.1251455491276601</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.1251455491276601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>30.69000053405762</v>
       </c>
       <c r="F251">
-        <v>25.16186332702637</v>
+        <v>25.16186141967773</v>
       </c>
       <c r="G251">
         <v>5782700</v>
@@ -8358,13 +9105,16 @@
         <v>0.02095811973746109</v>
       </c>
       <c r="I251">
-        <v>-0.04925645307827642</v>
+        <v>0.05655541453735437</v>
       </c>
       <c r="J251">
         <v>-0.04925645307827642</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.04925645307827642</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>0.02476377372618299</v>
       </c>
       <c r="I252">
-        <v>0.0237630685514898</v>
+        <v>0.05660237891389434</v>
       </c>
       <c r="J252">
         <v>0.0237630685514898</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.0237630685514898</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>31.90999984741211</v>
       </c>
       <c r="F253">
-        <v>26.16210556030273</v>
+        <v>26.1621036529541</v>
       </c>
       <c r="G253">
         <v>1793700</v>
@@ -8422,13 +9175,16 @@
         <v>0.01462636163159381</v>
       </c>
       <c r="I253">
-        <v>0.07224461028208307</v>
+        <v>0.05660906602790421</v>
       </c>
       <c r="J253">
         <v>0.07224461028208307</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.07224461028208307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>32.54999923706055</v>
       </c>
       <c r="F254">
-        <v>26.68681907653809</v>
+        <v>26.68682289123535</v>
       </c>
       <c r="G254">
         <v>2299200</v>
@@ -8454,13 +9210,16 @@
         <v>0.02005638961795042</v>
       </c>
       <c r="I254">
-        <v>0.03794638404172024</v>
+        <v>0.05653551833425031</v>
       </c>
       <c r="J254">
         <v>0.03794638404172024</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.03794638404172024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.01689705837026056</v>
       </c>
       <c r="I255">
-        <v>0.01471488528367626</v>
+        <v>0.05647469699637648</v>
       </c>
       <c r="J255">
         <v>0.01471488528367626</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.01471488528367626</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>34.61000061035156</v>
       </c>
       <c r="F256">
-        <v>28.37575912475586</v>
+        <v>28.37576103210449</v>
       </c>
       <c r="G256">
         <v>2229000</v>
@@ -8518,13 +9280,16 @@
         <v>0.04561940198912851</v>
       </c>
       <c r="I256">
-        <v>0.07351112929586767</v>
+        <v>0.05660162898847355</v>
       </c>
       <c r="J256">
         <v>0.07351112929586767</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.07351112929586767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>33.33000183105469</v>
       </c>
       <c r="F257">
-        <v>27.92905426025391</v>
+        <v>27.92905235290527</v>
       </c>
       <c r="G257">
         <v>1258700</v>
@@ -8550,13 +9315,16 @@
         <v>-0.03698349484900143</v>
       </c>
       <c r="I257">
-        <v>0.08425510992911467</v>
+        <v>0.05668832819031823</v>
       </c>
       <c r="J257">
         <v>0.08425510992911467</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.08425510992911467</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F258">
-        <v>28.59103012084961</v>
+        <v>28.59103393554688</v>
       </c>
       <c r="G258">
         <v>1471700</v>
@@ -8582,13 +9350,16 @@
         <v>0.02370228195109214</v>
       </c>
       <c r="I258">
-        <v>0.09358968261352718</v>
+        <v>0.05666049944080446</v>
       </c>
       <c r="J258">
         <v>0.09358968261352718</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.09358968261352718</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8614,13 +9385,16 @@
         <v>-0.008206295078022952</v>
       </c>
       <c r="I259">
-        <v>0.07292324572914777</v>
+        <v>0.05666289744236978</v>
       </c>
       <c r="J259">
         <v>0.07292324572914777</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.07292324572914777</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>34.84999847412109</v>
       </c>
       <c r="F260">
-        <v>29.20273971557617</v>
+        <v>29.20273780822754</v>
       </c>
       <c r="G260">
         <v>1773700</v>
@@ -8646,13 +9420,16 @@
         <v>0.02984628596273708</v>
       </c>
       <c r="I260">
-        <v>0.100063072550773</v>
+        <v>0.05660778000492196</v>
       </c>
       <c r="J260">
         <v>0.100063072550773</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.100063072550773</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>35.06000137329102</v>
       </c>
       <c r="F261">
-        <v>29.37871360778809</v>
+        <v>29.37871170043945</v>
       </c>
       <c r="G261">
         <v>988800</v>
@@ -8678,13 +9455,16 @@
         <v>0.006025908417926162</v>
       </c>
       <c r="I261">
-        <v>0.1686667124430339</v>
+        <v>0.05634668644344785</v>
       </c>
       <c r="J261">
         <v>0.1686667124430339</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1686667124430339</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>35.02000045776367</v>
       </c>
       <c r="F262">
-        <v>29.34519195556641</v>
+        <v>29.34519004821777</v>
       </c>
       <c r="G262">
         <v>2080300</v>
@@ -8710,13 +9490,16 @@
         <v>-0.001140927380505419</v>
       </c>
       <c r="I262">
-        <v>0.1650033626062073</v>
+        <v>0.05610434938289858</v>
       </c>
       <c r="J262">
         <v>0.1650033626062073</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.1650033626062073</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F263">
-        <v>30.58162879943848</v>
+        <v>30.58162498474121</v>
       </c>
       <c r="G263">
         <v>4697900</v>
@@ -8742,13 +9525,16 @@
         <v>0.02284406700752029</v>
       </c>
       <c r="I263">
-        <v>0.1671553949656561</v>
+        <v>0.05588788136369569</v>
       </c>
       <c r="J263">
         <v>0.1671553949656561</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.1671553949656561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F264">
-        <v>31.72566795349121</v>
+        <v>31.72566413879395</v>
       </c>
       <c r="G264">
         <v>2988200</v>
@@ -8774,13 +9560,16 @@
         <v>0.03740927314361508</v>
       </c>
       <c r="I264">
-        <v>0.1815579951019046</v>
+        <v>0.0555211530201498</v>
       </c>
       <c r="J264">
         <v>0.1815579951019046</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.1815579951019046</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>34.66999816894531</v>
       </c>
       <c r="F265">
-        <v>29.59980964660645</v>
+        <v>29.59981155395508</v>
       </c>
       <c r="G265">
         <v>1964100</v>
@@ -8806,13 +9595,16 @@
         <v>-0.06700758042764643</v>
       </c>
       <c r="I265">
-        <v>0.08649321011378941</v>
+        <v>0.05584828708637539</v>
       </c>
       <c r="J265">
         <v>0.08649321011378941</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.08649321011378941</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>34.75</v>
       </c>
       <c r="F266">
-        <v>29.66811180114746</v>
+        <v>29.66810989379883</v>
       </c>
       <c r="G266">
         <v>2071900</v>
@@ -8838,13 +9630,16 @@
         <v>0.002307523371211095</v>
       </c>
       <c r="I266">
-        <v>0.06758835067604529</v>
+        <v>0.05583137938730814</v>
       </c>
       <c r="J266">
         <v>0.06758835067604529</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.06758835067604529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>36.25</v>
       </c>
       <c r="F267">
-        <v>30.9487419128418</v>
+        <v>30.94874382019043</v>
       </c>
       <c r="G267">
         <v>1403200</v>
@@ -8870,13 +9665,16 @@
         <v>0.04316546762589923</v>
       </c>
       <c r="I267">
-        <v>0.09516621362812772</v>
+        <v>0.05570546652210982</v>
       </c>
       <c r="J267">
         <v>0.09516621362812772</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.09516621362812772</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.006068999191810365</v>
       </c>
       <c r="I268">
-        <v>0.04102855082067247</v>
+        <v>0.05570765761202835</v>
       </c>
       <c r="J268">
         <v>0.04102855082067247</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.04102855082067247</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>34.77999877929688</v>
       </c>
       <c r="F269">
-        <v>30.39541435241699</v>
+        <v>30.39541816711426</v>
       </c>
       <c r="G269">
         <v>2352000</v>
@@ -8934,13 +9735,16 @@
         <v>-0.03469331230503014</v>
       </c>
       <c r="I269">
-        <v>0.04350425648315381</v>
+        <v>0.05517506947919572</v>
       </c>
       <c r="J269">
         <v>0.04350425648315381</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.04350425648315381</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>35.11000061035156</v>
       </c>
       <c r="F270">
-        <v>30.68381118774414</v>
+        <v>30.68381500244141</v>
       </c>
       <c r="G270">
         <v>2207600</v>
@@ -8966,13 +9770,16 @@
         <v>0.009488264595659546</v>
       </c>
       <c r="I270">
-        <v>0.02901529042961526</v>
+        <v>0.0550515028780043</v>
       </c>
       <c r="J270">
         <v>0.02901529042961526</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.02901529042961526</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8998,13 +9805,16 @@
         <v>-0.04386217284978633</v>
       </c>
       <c r="I271">
-        <v>-0.007978736895573713</v>
+        <v>0.05511221711590902</v>
       </c>
       <c r="J271">
         <v>-0.007978736895573713</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.007978736895573713</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F272">
-        <v>29.81861686706543</v>
+        <v>29.81861877441406</v>
       </c>
       <c r="G272">
         <v>1776300</v>
@@ -9030,13 +9840,16 @@
         <v>0.01638365332321845</v>
       </c>
       <c r="I272">
-        <v>-0.02094690313339354</v>
+        <v>0.05374770149627259</v>
       </c>
       <c r="J272">
         <v>-0.02094690313339354</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.02094690313339354</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.0677022138996527</v>
       </c>
       <c r="I273">
-        <v>-0.0926982823744128</v>
+        <v>0.05093574878399824</v>
       </c>
       <c r="J273">
         <v>-0.0926982823744128</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.0926982823744128</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F274">
-        <v>27.46773719787598</v>
+        <v>27.46773910522461</v>
       </c>
       <c r="G274">
         <v>1139000</v>
@@ -9094,13 +9910,16 @@
         <v>-0.01194590277102803</v>
       </c>
       <c r="I274">
-        <v>-0.1025128528172824</v>
+        <v>0.05057897413531665</v>
       </c>
       <c r="J274">
         <v>-0.1025128528172824</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1025128528172824</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>29.35000038146973</v>
       </c>
       <c r="F275">
-        <v>26.20925903320312</v>
+        <v>26.20926094055176</v>
       </c>
       <c r="G275">
         <v>4516300</v>
@@ -9126,13 +9945,16 @@
         <v>-0.06617880698408796</v>
       </c>
       <c r="I275">
-        <v>-0.1806253313365987</v>
+        <v>0.05093115161475925</v>
       </c>
       <c r="J275">
         <v>-0.1806253313365987</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1806253313365987</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9158,13 +9980,16 @@
         <v>0.07291309580355354</v>
       </c>
       <c r="I276">
-        <v>-0.1525834257151865</v>
+        <v>0.05054558508609374</v>
       </c>
       <c r="J276">
         <v>-0.1525834257151865</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1525834257151865</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>32.56999969482422</v>
       </c>
       <c r="F277">
-        <v>29.08468818664551</v>
+        <v>29.08469009399414</v>
       </c>
       <c r="G277">
         <v>2036900</v>
@@ -9190,13 +10015,16 @@
         <v>0.03429659992238565</v>
       </c>
       <c r="I277">
-        <v>-0.0605710581202773</v>
+        <v>0.04974687885818677</v>
       </c>
       <c r="J277">
         <v>-0.0605710581202773</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.0605710581202773</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9222,13 +10050,16 @@
         <v>0.01350932240809644</v>
       </c>
       <c r="I278">
-        <v>-0.050071990747246</v>
+        <v>0.04961219114391653</v>
       </c>
       <c r="J278">
         <v>-0.050071990747246</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.050071990747246</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9254,13 +10085,16 @@
         <v>0.02272038891655304</v>
       </c>
       <c r="I279">
-        <v>-0.06868970147494613</v>
+        <v>0.04851405232554351</v>
       </c>
       <c r="J279">
         <v>-0.06868970147494613</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.06868970147494613</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9286,13 +10120,16 @@
         <v>-0.06131510338835755</v>
       </c>
       <c r="I280">
-        <v>-0.1204551316202945</v>
+        <v>0.04640560628291902</v>
       </c>
       <c r="J280">
         <v>-0.1204551316202945</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1204551316202945</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.01988006153832456</v>
       </c>
       <c r="I281">
-        <v>-0.07073028093195322</v>
+        <v>0.04628520336809183</v>
       </c>
       <c r="J281">
         <v>-0.07073028093195322</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.07073028093195322</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9350,13 +10190,16 @@
         <v>-0.02413362582493417</v>
       </c>
       <c r="I282">
-        <v>-0.1016804224654917</v>
+        <v>0.04572741290996195</v>
       </c>
       <c r="J282">
         <v>-0.1016804224654917</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.1016804224654917</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>30.34000015258789</v>
       </c>
       <c r="F283">
-        <v>27.7862663269043</v>
+        <v>27.78626441955566</v>
       </c>
       <c r="G283">
         <v>2143600</v>
@@ -9382,13 +10225,16 @@
         <v>-0.0380469476254417</v>
       </c>
       <c r="I283">
-        <v>-0.09621684753051474</v>
+        <v>0.04571076220932193</v>
       </c>
       <c r="J283">
         <v>-0.09621684753051474</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.09621684753051474</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F284">
-        <v>28.78451728820801</v>
+        <v>28.78452110290527</v>
       </c>
       <c r="G284">
         <v>1638900</v>
@@ -9414,13 +10260,16 @@
         <v>0.03592617492109396</v>
       </c>
       <c r="I284">
-        <v>-0.07883935260605213</v>
+        <v>0.0457007507732574</v>
       </c>
       <c r="J284">
         <v>-0.07883935260605213</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.07883935260605213</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>32.52999877929688</v>
       </c>
       <c r="F285">
-        <v>29.79193115234375</v>
+        <v>29.79193305969238</v>
       </c>
       <c r="G285">
         <v>2165400</v>
@@ -9446,13 +10295,16 @@
         <v>0.03499836027491066</v>
       </c>
       <c r="I285">
-        <v>0.02263437049489303</v>
+        <v>0.0458044539606668</v>
       </c>
       <c r="J285">
         <v>0.02263437049489303</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.02263437049489303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>0.0122963892065524</v>
       </c>
       <c r="I286">
-        <v>0.04772510294099441</v>
+        <v>0.04559423586522104</v>
       </c>
       <c r="J286">
         <v>0.04772510294099441</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.04772510294099441</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>34.09999847412109</v>
       </c>
       <c r="F287">
-        <v>31.78817749023438</v>
+        <v>31.78817367553711</v>
       </c>
       <c r="G287">
         <v>2009200</v>
@@ -9510,13 +10365,16 @@
         <v>0.03552985600068204</v>
       </c>
       <c r="I287">
-        <v>0.1618397966239995</v>
+        <v>0.04569923416516532</v>
       </c>
       <c r="J287">
         <v>0.1618397966239995</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1618397966239995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>32.63999938964844</v>
       </c>
       <c r="F288">
-        <v>30.42715644836426</v>
+        <v>30.42715835571289</v>
       </c>
       <c r="G288">
         <v>3262700</v>
@@ -9542,13 +10400,16 @@
         <v>-0.04281522433441365</v>
       </c>
       <c r="I288">
-        <v>0.03651951816096943</v>
+        <v>0.04565876115598326</v>
       </c>
       <c r="J288">
         <v>0.03651951816096943</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.03651951816096943</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>-0.1023284379609134</v>
       </c>
       <c r="I289">
-        <v>-0.1003991553086602</v>
+        <v>0.04662476536631621</v>
       </c>
       <c r="J289">
         <v>-0.1003991553086602</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.1003991553086602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F290">
-        <v>22.26104354858398</v>
+        <v>22.26104545593262</v>
       </c>
       <c r="G290">
         <v>6584100</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1849829425742229</v>
       </c>
       <c r="I290">
-        <v>-0.276582842320561</v>
+        <v>0.04925769274055467</v>
       </c>
       <c r="J290">
         <v>-0.276582842320561</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.276582842320561</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.05737022141458969</v>
       </c>
       <c r="I291">
-        <v>-0.2520734225305117</v>
+        <v>0.04951208576066492</v>
       </c>
       <c r="J291">
         <v>-0.2520734225305117</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2520734225305117</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.01900988286084471</v>
       </c>
       <c r="I292">
-        <v>-0.1880719751145478</v>
+        <v>0.04851065211150756</v>
       </c>
       <c r="J292">
         <v>-0.1880719751145478</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.1880719751145478</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.001165980846453696</v>
       </c>
       <c r="I293">
-        <v>-0.2029702824221534</v>
+        <v>0.04827485271294808</v>
       </c>
       <c r="J293">
         <v>-0.2029702824221534</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.2029702824221534</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.006599381785072467</v>
       </c>
       <c r="I294">
-        <v>-0.1778693864143081</v>
+        <v>0.04641650007539778</v>
       </c>
       <c r="J294">
         <v>-0.1778693864143081</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.1778693864143081</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>26.63999938964844</v>
       </c>
       <c r="F295">
-        <v>25.21347427368164</v>
+        <v>25.21347618103027</v>
       </c>
       <c r="G295">
         <v>4588800</v>
@@ -9766,13 +10645,16 @@
         <v>0.02738137586257317</v>
       </c>
       <c r="I295">
-        <v>-0.1219512440451935</v>
+        <v>0.0464147513646762</v>
       </c>
       <c r="J295">
         <v>-0.1219512440451935</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.1219512440451935</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.04316815483776371</v>
       </c>
       <c r="I296">
-        <v>-0.1889914246383078</v>
+        <v>0.04577524784059842</v>
       </c>
       <c r="J296">
         <v>-0.1889914246383078</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.1889914246383078</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.04511571709911499</v>
       </c>
       <c r="I297">
-        <v>-0.2517675663708097</v>
+        <v>0.04577672602839989</v>
       </c>
       <c r="J297">
         <v>-0.2517675663708097</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.2517675663708097</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>28.26000022888184</v>
       </c>
       <c r="F298">
-        <v>26.74672698974609</v>
+        <v>26.74672889709473</v>
       </c>
       <c r="G298">
         <v>7907400</v>
@@ -9862,13 +10750,16 @@
         <v>0.1610517687641493</v>
       </c>
       <c r="I298">
-        <v>-0.1418159742792331</v>
+        <v>0.04789187309100029</v>
       </c>
       <c r="J298">
         <v>-0.1418159742792331</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.1418159742792331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.03644729930302137</v>
       </c>
       <c r="I299">
-        <v>-0.1410556531914251</v>
+        <v>0.04751422035900178</v>
       </c>
       <c r="J299">
         <v>-0.1410556531914251</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.1410556531914251</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.002389948787462903</v>
       </c>
       <c r="I300">
-        <v>-0.1047794160614652</v>
+        <v>0.04750334230294691</v>
       </c>
       <c r="J300">
         <v>-0.1047794160614652</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>-0.1047794160614652</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.03935665821023204</v>
       </c>
       <c r="I301">
-        <v>0.03651882696363495</v>
+        <v>0.04745627891049897</v>
       </c>
       <c r="J301">
         <v>0.03651882696363495</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.03651882696363495</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.03095155089672086</v>
       </c>
       <c r="I302">
-        <v>0.3111390521898687</v>
+        <v>0.04749002138804088</v>
       </c>
       <c r="J302">
         <v>0.3111390521898687</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.3111390521898687</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.03896516557534757</v>
       </c>
       <c r="I303">
-        <v>0.2883167833384901</v>
+        <v>0.04722592706305128</v>
       </c>
       <c r="J303">
         <v>0.2883167833384901</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.2883167833384901</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.03873354391369888</v>
       </c>
       <c r="I304">
-        <v>0.3132530709944381</v>
+        <v>0.04730954700564625</v>
       </c>
       <c r="J304">
         <v>0.3132530709944381</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.3132530709944381</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.03225806815787946</v>
       </c>
       <c r="I305">
-        <v>0.2694099562264973</v>
+        <v>0.04721674820919241</v>
       </c>
       <c r="J305">
         <v>0.2694099562264973</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2694099562264973</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.002752298180062729</v>
       </c>
       <c r="I306">
-        <v>0.2645584469577607</v>
+        <v>0.04721552559769536</v>
       </c>
       <c r="J306">
         <v>0.2645584469577607</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2645584469577607</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.006709283313916625</v>
       </c>
       <c r="I307">
-        <v>0.2391140794980637</v>
+        <v>0.04668142055461596</v>
       </c>
       <c r="J307">
         <v>0.2391140794980637</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.2391140794980637</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.0230232765882159</v>
       </c>
       <c r="I308">
-        <v>0.2652020513762954</v>
+        <v>0.04583184739752096</v>
       </c>
       <c r="J308">
         <v>0.2652020513762954</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2652020513762954</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.04434109473413272</v>
       </c>
       <c r="I309">
-        <v>0.3837304886620898</v>
+        <v>0.04448148708329125</v>
       </c>
       <c r="J309">
         <v>0.3837304886620898</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.3837304886620898</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.04869356813504577</v>
       </c>
       <c r="I310">
-        <v>0.133757984997549</v>
+        <v>0.04468603949282822</v>
       </c>
       <c r="J310">
         <v>0.133757984997549</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.133757984997549</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>33.29999923706055</v>
+        <v>33.20999908447266</v>
       </c>
       <c r="C311">
-        <v>33.40499877929688</v>
+        <v>33.2400016784668</v>
       </c>
       <c r="D311">
-        <v>33.18999862670898</v>
+        <v>33.09999847412109</v>
       </c>
       <c r="E311">
-        <v>33.20500183105469</v>
+        <v>33.13999938964844</v>
       </c>
       <c r="F311">
-        <v>33.20500183105469</v>
+        <v>33.13999938964844</v>
       </c>
       <c r="G311">
-        <v>3585548</v>
+        <v>1833600</v>
       </c>
       <c r="H311">
-        <v>0.03636082653676698</v>
+        <v>0.03433203628867587</v>
       </c>
       <c r="I311">
-        <v>0.1336633934160072</v>
+        <v>0.044765501094321</v>
       </c>
       <c r="J311">
-        <v>0.1336633934160072</v>
+        <v>0.1314441226964973</v>
+      </c>
+      <c r="K311">
+        <v>0.1314441226964973</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>33.33000183105469</v>
+      </c>
+      <c r="C312">
+        <v>33.47000122070312</v>
+      </c>
+      <c r="D312">
+        <v>33.2400016784668</v>
+      </c>
+      <c r="E312">
+        <v>33.45800018310547</v>
+      </c>
+      <c r="F312">
+        <v>33.45800018310547</v>
+      </c>
+      <c r="G312">
+        <v>4313222</v>
+      </c>
+      <c r="H312">
+        <v>0.009595678917132533</v>
+      </c>
+      <c r="I312">
+        <v>0.04468166363474169</v>
+      </c>
+      <c r="J312">
+        <v>0.1450376786221919</v>
+      </c>
+      <c r="K312">
+        <v>0.1450376786221919</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWU.xlsx
+++ b/etf_dfs/EWU.xlsx
@@ -508,7 +508,7 @@
         <v>24.625</v>
       </c>
       <c r="F2" t="n">
-        <v>9.303585052490234</v>
+        <v>9.303587913513184</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -535,7 +535,7 @@
         <v>25.375</v>
       </c>
       <c r="F3" t="n">
-        <v>9.586945533752441</v>
+        <v>9.586942672729492</v>
       </c>
       <c r="G3" t="n">
         <v>50</v>
@@ -564,7 +564,7 @@
         <v>25.125</v>
       </c>
       <c r="F4" t="n">
-        <v>9.492489814758301</v>
+        <v>9.49249267578125</v>
       </c>
       <c r="G4" t="n">
         <v>1250</v>
@@ -595,7 +595,7 @@
         <v>25.375</v>
       </c>
       <c r="F5" t="n">
-        <v>9.586945533752441</v>
+        <v>9.586942672729492</v>
       </c>
       <c r="G5" t="n">
         <v>1600</v>
@@ -626,7 +626,7 @@
         <v>25.75</v>
       </c>
       <c r="F6" t="n">
-        <v>9.728625297546387</v>
+        <v>9.72862434387207</v>
       </c>
       <c r="G6" t="n">
         <v>16400</v>
@@ -657,7 +657,7 @@
         <v>26.125</v>
       </c>
       <c r="F7" t="n">
-        <v>10.06032943725586</v>
+        <v>10.06033039093018</v>
       </c>
       <c r="G7" t="n">
         <v>400</v>
@@ -688,7 +688,7 @@
         <v>26.625</v>
       </c>
       <c r="F8" t="n">
-        <v>10.25287437438965</v>
+        <v>10.2528715133667</v>
       </c>
       <c r="G8" t="n">
         <v>6600</v>
@@ -719,7 +719,7 @@
         <v>28.125</v>
       </c>
       <c r="F9" t="n">
-        <v>10.8305025100708</v>
+        <v>10.83050155639648</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -750,7 +750,7 @@
         <v>29.5</v>
       </c>
       <c r="F10" t="n">
-        <v>11.35999298095703</v>
+        <v>11.35999011993408</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -781,7 +781,7 @@
         <v>30.875</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94998931884766</v>
+        <v>11.94998645782471</v>
       </c>
       <c r="G11" t="n">
         <v>8700</v>
@@ -812,7 +812,7 @@
         <v>29.25</v>
       </c>
       <c r="F12" t="n">
-        <v>11.32104301452637</v>
+        <v>11.32104396820068</v>
       </c>
       <c r="G12" t="n">
         <v>26750</v>
@@ -843,7 +843,7 @@
         <v>30.25</v>
       </c>
       <c r="F13" t="n">
-        <v>11.70808792114258</v>
+        <v>11.70808506011963</v>
       </c>
       <c r="G13" t="n">
         <v>550</v>
@@ -874,7 +874,7 @@
         <v>30.625</v>
       </c>
       <c r="F14" t="n">
-        <v>11.85322856903076</v>
+        <v>11.85322666168213</v>
       </c>
       <c r="G14" t="n">
         <v>7300</v>
@@ -909,7 +909,7 @@
         <v>31.25</v>
       </c>
       <c r="F15" t="n">
-        <v>12.09513187408447</v>
+        <v>12.09512710571289</v>
       </c>
       <c r="G15" t="n">
         <v>1050</v>
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>12.77245426177979</v>
+        <v>12.77245616912842</v>
       </c>
       <c r="G16" t="n">
         <v>750</v>
@@ -979,7 +979,7 @@
         <v>33.5</v>
       </c>
       <c r="F17" t="n">
-        <v>12.96597862243652</v>
+        <v>12.96597957611084</v>
       </c>
       <c r="G17" t="n">
         <v>800</v>
@@ -1014,7 +1014,7 @@
         <v>35.25</v>
       </c>
       <c r="F18" t="n">
-        <v>13.64330673217773</v>
+        <v>13.64330768585205</v>
       </c>
       <c r="G18" t="n">
         <v>1350</v>
@@ -1049,7 +1049,7 @@
         <v>33.125</v>
       </c>
       <c r="F19" t="n">
-        <v>13.25562000274658</v>
+        <v>13.25562381744385</v>
       </c>
       <c r="G19" t="n">
         <v>550</v>
@@ -1084,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>14.40610980987549</v>
+        <v>14.40610790252686</v>
       </c>
       <c r="G20" t="n">
         <v>2550</v>
@@ -1154,7 +1154,7 @@
         <v>34.625</v>
       </c>
       <c r="F22" t="n">
-        <v>13.855881690979</v>
+        <v>13.85587501525879</v>
       </c>
       <c r="G22" t="n">
         <v>150</v>
@@ -1224,7 +1224,7 @@
         <v>37.25</v>
       </c>
       <c r="F24" t="n">
-        <v>14.91901969909668</v>
+        <v>14.91902160644531</v>
       </c>
       <c r="G24" t="n">
         <v>6600</v>
@@ -1259,7 +1259,7 @@
         <v>39.75</v>
       </c>
       <c r="F25" t="n">
-        <v>15.92030048370361</v>
+        <v>15.92029857635498</v>
       </c>
       <c r="G25" t="n">
         <v>4300</v>
@@ -1294,7 +1294,7 @@
         <v>42.875</v>
       </c>
       <c r="F26" t="n">
-        <v>17.17188835144043</v>
+        <v>17.17189025878906</v>
       </c>
       <c r="G26" t="n">
         <v>14500</v>
@@ -1329,7 +1329,7 @@
         <v>42.5</v>
       </c>
       <c r="F27" t="n">
-        <v>17.02169990539551</v>
+        <v>17.02170372009277</v>
       </c>
       <c r="G27" t="n">
         <v>11100</v>
@@ -1364,7 +1364,7 @@
         <v>40.75</v>
       </c>
       <c r="F28" t="n">
-        <v>16.3208065032959</v>
+        <v>16.32080459594727</v>
       </c>
       <c r="G28" t="n">
         <v>2150</v>
@@ -1434,7 +1434,7 @@
         <v>40.75</v>
       </c>
       <c r="F30" t="n">
-        <v>16.3208065032959</v>
+        <v>16.32080459594727</v>
       </c>
       <c r="G30" t="n">
         <v>6000</v>
@@ -1469,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>14.38479614257812</v>
+        <v>14.38480281829834</v>
       </c>
       <c r="G31" t="n">
         <v>26600</v>
@@ -1504,7 +1504,7 @@
         <v>36.125</v>
       </c>
       <c r="F32" t="n">
-        <v>14.84716606140137</v>
+        <v>14.84716320037842</v>
       </c>
       <c r="G32" t="n">
         <v>3300</v>
@@ -1539,7 +1539,7 @@
         <v>38.125</v>
       </c>
       <c r="F33" t="n">
-        <v>15.66915225982666</v>
+        <v>15.66915702819824</v>
       </c>
       <c r="G33" t="n">
         <v>7850</v>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>16.43976783752441</v>
+        <v>16.43976974487305</v>
       </c>
       <c r="G34" t="n">
         <v>30950</v>
@@ -1679,7 +1679,7 @@
         <v>41.625</v>
       </c>
       <c r="F37" t="n">
-        <v>17.18215942382812</v>
+        <v>17.18216323852539</v>
       </c>
       <c r="G37" t="n">
         <v>3250</v>
@@ -1714,7 +1714,7 @@
         <v>42.625</v>
       </c>
       <c r="F38" t="n">
-        <v>17.59494400024414</v>
+        <v>17.59494590759277</v>
       </c>
       <c r="G38" t="n">
         <v>16250</v>
@@ -1749,7 +1749,7 @@
         <v>44.5</v>
       </c>
       <c r="F39" t="n">
-        <v>18.3689136505127</v>
+        <v>18.36891555786133</v>
       </c>
       <c r="G39" t="n">
         <v>7400</v>
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="n">
-        <v>17.33695602416992</v>
+        <v>17.33695220947266</v>
       </c>
       <c r="G40" t="n">
         <v>2700</v>
@@ -1819,7 +1819,7 @@
         <v>43.125</v>
       </c>
       <c r="F41" t="n">
-        <v>17.80133247375488</v>
+        <v>17.80134010314941</v>
       </c>
       <c r="G41" t="n">
         <v>53100</v>
@@ -1854,7 +1854,7 @@
         <v>42.5</v>
       </c>
       <c r="F42" t="n">
-        <v>17.5433464050293</v>
+        <v>17.54334831237793</v>
       </c>
       <c r="G42" t="n">
         <v>2250</v>
@@ -1889,7 +1889,7 @@
         <v>40.625</v>
       </c>
       <c r="F43" t="n">
-        <v>17.56440353393555</v>
+        <v>17.56439971923828</v>
       </c>
       <c r="G43" t="n">
         <v>2950</v>
@@ -1924,7 +1924,7 @@
         <v>40.625</v>
       </c>
       <c r="F44" t="n">
-        <v>17.56440353393555</v>
+        <v>17.56439971923828</v>
       </c>
       <c r="G44" t="n">
         <v>11650</v>
@@ -1959,7 +1959,7 @@
         <v>41.375</v>
       </c>
       <c r="F45" t="n">
-        <v>17.88866806030273</v>
+        <v>17.888671875</v>
       </c>
       <c r="G45" t="n">
         <v>17250</v>
@@ -2029,7 +2029,7 @@
         <v>42.875</v>
       </c>
       <c r="F47" t="n">
-        <v>18.88607215881348</v>
+        <v>18.88607406616211</v>
       </c>
       <c r="G47" t="n">
         <v>5000</v>
@@ -2064,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="F48" t="n">
-        <v>17.17916679382324</v>
+        <v>17.17917060852051</v>
       </c>
       <c r="G48" t="n">
         <v>155450</v>
@@ -2099,7 +2099,7 @@
         <v>38.375</v>
       </c>
       <c r="F49" t="n">
-        <v>16.90385818481445</v>
+        <v>16.90386009216309</v>
       </c>
       <c r="G49" t="n">
         <v>71950</v>
@@ -2134,7 +2134,7 @@
         <v>40.875</v>
       </c>
       <c r="F50" t="n">
-        <v>18.00509262084961</v>
+        <v>18.00509071350098</v>
       </c>
       <c r="G50" t="n">
         <v>12250</v>
@@ -2169,7 +2169,7 @@
         <v>39.25</v>
       </c>
       <c r="F51" t="n">
-        <v>17.28928756713867</v>
+        <v>17.2892894744873</v>
       </c>
       <c r="G51" t="n">
         <v>10400</v>
@@ -2204,7 +2204,7 @@
         <v>37.875</v>
       </c>
       <c r="F52" t="n">
-        <v>16.68362045288086</v>
+        <v>16.68361663818359</v>
       </c>
       <c r="G52" t="n">
         <v>74450</v>
@@ -2239,7 +2239,7 @@
         <v>38.375</v>
       </c>
       <c r="F53" t="n">
-        <v>16.90385818481445</v>
+        <v>16.90386009216309</v>
       </c>
       <c r="G53" t="n">
         <v>10200</v>
@@ -2274,7 +2274,7 @@
         <v>38.375</v>
       </c>
       <c r="F54" t="n">
-        <v>16.90385818481445</v>
+        <v>16.90386009216309</v>
       </c>
       <c r="G54" t="n">
         <v>3850</v>
@@ -2344,7 +2344,7 @@
         <v>35.75</v>
       </c>
       <c r="F56" t="n">
-        <v>16.53354835510254</v>
+        <v>16.53354454040527</v>
       </c>
       <c r="G56" t="n">
         <v>53600</v>
@@ -2379,7 +2379,7 @@
         <v>36.75</v>
       </c>
       <c r="F57" t="n">
-        <v>16.99602508544922</v>
+        <v>16.99603080749512</v>
       </c>
       <c r="G57" t="n">
         <v>35900</v>
@@ -2414,7 +2414,7 @@
         <v>34.5</v>
       </c>
       <c r="F58" t="n">
-        <v>15.9554557800293</v>
+        <v>15.95545768737793</v>
       </c>
       <c r="G58" t="n">
         <v>6800</v>
@@ -2449,7 +2449,7 @@
         <v>35.25</v>
       </c>
       <c r="F59" t="n">
-        <v>16.31833457946777</v>
+        <v>16.31833076477051</v>
       </c>
       <c r="G59" t="n">
         <v>126400</v>
@@ -2484,7 +2484,7 @@
         <v>35.65999984741211</v>
       </c>
       <c r="F60" t="n">
-        <v>16.50813674926758</v>
+        <v>16.50813865661621</v>
       </c>
       <c r="G60" t="n">
         <v>64850</v>
@@ -2519,7 +2519,7 @@
         <v>33.38000106811523</v>
       </c>
       <c r="F61" t="n">
-        <v>15.45265769958496</v>
+        <v>15.45265579223633</v>
       </c>
       <c r="G61" t="n">
         <v>33800</v>
@@ -2554,7 +2554,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F62" t="n">
-        <v>14.51753616333008</v>
+        <v>14.51752758026123</v>
       </c>
       <c r="G62" t="n">
         <v>5100</v>
@@ -2589,7 +2589,7 @@
         <v>33.29999923706055</v>
       </c>
       <c r="F63" t="n">
-        <v>15.41561794281006</v>
+        <v>15.41561889648438</v>
       </c>
       <c r="G63" t="n">
         <v>26450</v>
@@ -2624,7 +2624,7 @@
         <v>32.54000091552734</v>
       </c>
       <c r="F64" t="n">
-        <v>15.06378936767578</v>
+        <v>15.06379318237305</v>
       </c>
       <c r="G64" t="n">
         <v>15350</v>
@@ -2659,7 +2659,7 @@
         <v>31.5</v>
       </c>
       <c r="F65" t="n">
-        <v>14.58234310150146</v>
+        <v>14.58234119415283</v>
       </c>
       <c r="G65" t="n">
         <v>194000</v>
@@ -2694,7 +2694,7 @@
         <v>31.10000038146973</v>
       </c>
       <c r="F66" t="n">
-        <v>14.39716815948486</v>
+        <v>14.39716911315918</v>
       </c>
       <c r="G66" t="n">
         <v>64800</v>
@@ -2729,7 +2729,7 @@
         <v>30.36000061035156</v>
       </c>
       <c r="F67" t="n">
-        <v>14.29203224182129</v>
+        <v>14.29202938079834</v>
       </c>
       <c r="G67" t="n">
         <v>9300</v>
@@ -2764,7 +2764,7 @@
         <v>28</v>
       </c>
       <c r="F68" t="n">
-        <v>13.18105506896973</v>
+        <v>13.18105792999268</v>
       </c>
       <c r="G68" t="n">
         <v>26750</v>
@@ -2799,7 +2799,7 @@
         <v>28.54000091552734</v>
       </c>
       <c r="F69" t="n">
-        <v>13.43525886535645</v>
+        <v>13.43525981903076</v>
       </c>
       <c r="G69" t="n">
         <v>54400</v>
@@ -2834,7 +2834,7 @@
         <v>28.86000061035156</v>
       </c>
       <c r="F70" t="n">
-        <v>13.58590507507324</v>
+        <v>13.58590126037598</v>
       </c>
       <c r="G70" t="n">
         <v>117750</v>
@@ -2869,7 +2869,7 @@
         <v>29.3799991607666</v>
       </c>
       <c r="F71" t="n">
-        <v>14.04421710968018</v>
+        <v>14.04422569274902</v>
       </c>
       <c r="G71" t="n">
         <v>20900</v>
@@ -2904,7 +2904,7 @@
         <v>28.34000015258789</v>
       </c>
       <c r="F72" t="n">
-        <v>13.54707908630371</v>
+        <v>13.54708194732666</v>
       </c>
       <c r="G72" t="n">
         <v>123600</v>
@@ -2939,7 +2939,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="F73" t="n">
-        <v>13.32719039916992</v>
+        <v>13.32719326019287</v>
       </c>
       <c r="G73" t="n">
         <v>13600</v>
@@ -2974,7 +2974,7 @@
         <v>29.31999969482422</v>
       </c>
       <c r="F74" t="n">
-        <v>14.01554298400879</v>
+        <v>14.01553726196289</v>
       </c>
       <c r="G74" t="n">
         <v>8000</v>
@@ -3044,7 +3044,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F76" t="n">
-        <v>13.82433032989502</v>
+        <v>13.8243293762207</v>
       </c>
       <c r="G76" t="n">
         <v>36950</v>
@@ -3079,7 +3079,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F77" t="n">
-        <v>13.28895092010498</v>
+        <v>13.28894710540771</v>
       </c>
       <c r="G77" t="n">
         <v>15700</v>
@@ -3114,7 +3114,7 @@
         <v>26.20000076293945</v>
       </c>
       <c r="F78" t="n">
-        <v>12.52412033081055</v>
+        <v>12.52411556243896</v>
       </c>
       <c r="G78" t="n">
         <v>48850</v>
@@ -3149,7 +3149,7 @@
         <v>25.71999931335449</v>
       </c>
       <c r="F79" t="n">
-        <v>12.29466724395752</v>
+        <v>12.29466915130615</v>
       </c>
       <c r="G79" t="n">
         <v>105950</v>
@@ -3219,7 +3219,7 @@
         <v>24.52000045776367</v>
       </c>
       <c r="F81" t="n">
-        <v>11.72104454040527</v>
+        <v>11.72104549407959</v>
       </c>
       <c r="G81" t="n">
         <v>89550</v>
@@ -3254,7 +3254,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="F82" t="n">
-        <v>12.24686622619629</v>
+        <v>12.24686813354492</v>
       </c>
       <c r="G82" t="n">
         <v>13400</v>
@@ -3289,7 +3289,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F83" t="n">
-        <v>11.88966274261475</v>
+        <v>11.88966369628906</v>
       </c>
       <c r="G83" t="n">
         <v>13600</v>
@@ -3324,7 +3324,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="F84" t="n">
-        <v>11.43951797485352</v>
+        <v>11.43951892852783</v>
       </c>
       <c r="G84" t="n">
         <v>4440450</v>
@@ -3359,7 +3359,7 @@
         <v>22.26000022888184</v>
       </c>
       <c r="F85" t="n">
-        <v>10.89151477813721</v>
+        <v>10.89152050018311</v>
       </c>
       <c r="G85" t="n">
         <v>118600</v>
@@ -3394,7 +3394,7 @@
         <v>22.23999977111816</v>
       </c>
       <c r="F86" t="n">
-        <v>10.88173294067383</v>
+        <v>10.88173198699951</v>
       </c>
       <c r="G86" t="n">
         <v>2490700</v>
@@ -3429,7 +3429,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F87" t="n">
-        <v>12.05602264404297</v>
+        <v>12.05602073669434</v>
       </c>
       <c r="G87" t="n">
         <v>107950</v>
@@ -3499,7 +3499,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F89" t="n">
-        <v>12.84866046905518</v>
+        <v>12.84866333007812</v>
       </c>
       <c r="G89" t="n">
         <v>37400</v>
@@ -3534,7 +3534,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F90" t="n">
-        <v>12.71166229248047</v>
+        <v>12.71166133880615</v>
       </c>
       <c r="G90" t="n">
         <v>17300</v>
@@ -3569,7 +3569,7 @@
         <v>26.02000045776367</v>
       </c>
       <c r="F91" t="n">
-        <v>12.73123455047607</v>
+        <v>12.73123645782471</v>
       </c>
       <c r="G91" t="n">
         <v>179650</v>
@@ -3604,7 +3604,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F92" t="n">
-        <v>13.12266445159912</v>
+        <v>13.12266635894775</v>
       </c>
       <c r="G92" t="n">
         <v>122800</v>
@@ -3639,7 +3639,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F93" t="n">
-        <v>14.15995502471924</v>
+        <v>14.15995216369629</v>
       </c>
       <c r="G93" t="n">
         <v>25900</v>
@@ -3674,7 +3674,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F94" t="n">
-        <v>14.49266624450684</v>
+        <v>14.49266529083252</v>
       </c>
       <c r="G94" t="n">
         <v>12600</v>
@@ -3709,7 +3709,7 @@
         <v>31.15999984741211</v>
       </c>
       <c r="F95" t="n">
-        <v>16.02722549438477</v>
+        <v>16.02722358703613</v>
       </c>
       <c r="G95" t="n">
         <v>96150</v>
@@ -3779,7 +3779,7 @@
         <v>32.47999954223633</v>
       </c>
       <c r="F97" t="n">
-        <v>16.7061653137207</v>
+        <v>16.70616722106934</v>
       </c>
       <c r="G97" t="n">
         <v>109100</v>
@@ -3814,7 +3814,7 @@
         <v>31.70000076293945</v>
       </c>
       <c r="F98" t="n">
-        <v>16.30497360229492</v>
+        <v>16.30497550964355</v>
       </c>
       <c r="G98" t="n">
         <v>74000</v>
@@ -3849,7 +3849,7 @@
         <v>31.18000030517578</v>
       </c>
       <c r="F99" t="n">
-        <v>16.03750991821289</v>
+        <v>16.03751182556152</v>
       </c>
       <c r="G99" t="n">
         <v>139900</v>
@@ -3884,7 +3884,7 @@
         <v>31.79999923706055</v>
       </c>
       <c r="F100" t="n">
-        <v>16.35640907287598</v>
+        <v>16.35640716552734</v>
       </c>
       <c r="G100" t="n">
         <v>69350</v>
@@ -3919,7 +3919,7 @@
         <v>32.29999923706055</v>
       </c>
       <c r="F101" t="n">
-        <v>16.61358642578125</v>
+        <v>16.61358451843262</v>
       </c>
       <c r="G101" t="n">
         <v>83600</v>
@@ -3954,7 +3954,7 @@
         <v>31.54000091552734</v>
       </c>
       <c r="F102" t="n">
-        <v>16.22267913818359</v>
+        <v>16.22267723083496</v>
       </c>
       <c r="G102" t="n">
         <v>77650</v>
@@ -3989,7 +3989,7 @@
         <v>31.89999961853027</v>
       </c>
       <c r="F103" t="n">
-        <v>16.40784454345703</v>
+        <v>16.40784072875977</v>
       </c>
       <c r="G103" t="n">
         <v>69350</v>
@@ -4024,7 +4024,7 @@
         <v>32.65999984741211</v>
       </c>
       <c r="F104" t="n">
-        <v>16.79875564575195</v>
+        <v>16.79874992370605</v>
       </c>
       <c r="G104" t="n">
         <v>77150</v>
@@ -4059,7 +4059,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F105" t="n">
-        <v>17.28223991394043</v>
+        <v>17.28224563598633</v>
       </c>
       <c r="G105" t="n">
         <v>101550</v>
@@ -4129,7 +4129,7 @@
         <v>36.18000030517578</v>
       </c>
       <c r="F107" t="n">
-        <v>18.96844291687012</v>
+        <v>18.96844100952148</v>
       </c>
       <c r="G107" t="n">
         <v>44800</v>
@@ -4164,7 +4164,7 @@
         <v>35.29999923706055</v>
       </c>
       <c r="F108" t="n">
-        <v>18.50707626342773</v>
+        <v>18.50707244873047</v>
       </c>
       <c r="G108" t="n">
         <v>83250</v>
@@ -4199,7 +4199,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F109" t="n">
-        <v>19.48224449157715</v>
+        <v>19.48224067687988</v>
       </c>
       <c r="G109" t="n">
         <v>57200</v>
@@ -4234,7 +4234,7 @@
         <v>36.2599983215332</v>
       </c>
       <c r="F110" t="n">
-        <v>19.01038551330566</v>
+        <v>19.01038360595703</v>
       </c>
       <c r="G110" t="n">
         <v>684300</v>
@@ -4304,7 +4304,7 @@
         <v>35.54000091552734</v>
       </c>
       <c r="F112" t="n">
-        <v>18.63290405273438</v>
+        <v>18.63290023803711</v>
       </c>
       <c r="G112" t="n">
         <v>144450</v>
@@ -4339,7 +4339,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F113" t="n">
-        <v>18.84261894226074</v>
+        <v>18.84262084960938</v>
       </c>
       <c r="G113" t="n">
         <v>14450</v>
@@ -4374,7 +4374,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F114" t="n">
-        <v>18.97893524169922</v>
+        <v>18.97893714904785</v>
       </c>
       <c r="G114" t="n">
         <v>55750</v>
@@ -4409,7 +4409,7 @@
         <v>37.63999938964844</v>
       </c>
       <c r="F115" t="n">
-        <v>19.73389625549316</v>
+        <v>19.73389434814453</v>
       </c>
       <c r="G115" t="n">
         <v>48400</v>
@@ -4444,7 +4444,7 @@
         <v>37.91999816894531</v>
       </c>
       <c r="F116" t="n">
-        <v>19.88068771362305</v>
+        <v>19.88068962097168</v>
       </c>
       <c r="G116" t="n">
         <v>113550</v>
@@ -4479,7 +4479,7 @@
         <v>37</v>
       </c>
       <c r="F117" t="n">
-        <v>19.39835357666016</v>
+        <v>19.39835166931152</v>
       </c>
       <c r="G117" t="n">
         <v>58200</v>
@@ -4514,7 +4514,7 @@
         <v>37.06000137329102</v>
       </c>
       <c r="F118" t="n">
-        <v>19.4298095703125</v>
+        <v>19.4298152923584</v>
       </c>
       <c r="G118" t="n">
         <v>44000</v>
@@ -4584,7 +4584,7 @@
         <v>39.41999816894531</v>
       </c>
       <c r="F120" t="n">
-        <v>21.30663681030273</v>
+        <v>21.306640625</v>
       </c>
       <c r="G120" t="n">
         <v>129750</v>
@@ -4619,7 +4619,7 @@
         <v>39.20000076293945</v>
       </c>
       <c r="F121" t="n">
-        <v>21.18772888183594</v>
+        <v>21.18773078918457</v>
       </c>
       <c r="G121" t="n">
         <v>97650</v>
@@ -4794,7 +4794,7 @@
         <v>43.20000076293945</v>
       </c>
       <c r="F126" t="n">
-        <v>23.3497486114502</v>
+        <v>23.34973907470703</v>
       </c>
       <c r="G126" t="n">
         <v>509100</v>
@@ -4829,7 +4829,7 @@
         <v>44.13999938964844</v>
       </c>
       <c r="F127" t="n">
-        <v>23.85781097412109</v>
+        <v>23.85781669616699</v>
       </c>
       <c r="G127" t="n">
         <v>64200</v>
@@ -4864,7 +4864,7 @@
         <v>43.77999877929688</v>
       </c>
       <c r="F128" t="n">
-        <v>23.66323089599609</v>
+        <v>23.66324043273926</v>
       </c>
       <c r="G128" t="n">
         <v>126200</v>
@@ -4934,7 +4934,7 @@
         <v>47.09999847412109</v>
       </c>
       <c r="F130" t="n">
-        <v>25.45770835876465</v>
+        <v>25.45770454406738</v>
       </c>
       <c r="G130" t="n">
         <v>67300</v>
@@ -4969,7 +4969,7 @@
         <v>46.81999969482422</v>
       </c>
       <c r="F131" t="n">
-        <v>26.18308639526367</v>
+        <v>26.1830940246582</v>
       </c>
       <c r="G131" t="n">
         <v>66700</v>
@@ -5004,7 +5004,7 @@
         <v>47.13999938964844</v>
       </c>
       <c r="F132" t="n">
-        <v>26.36204719543457</v>
+        <v>26.36204147338867</v>
       </c>
       <c r="G132" t="n">
         <v>470200</v>
@@ -5039,7 +5039,7 @@
         <v>46.43999862670898</v>
       </c>
       <c r="F133" t="n">
-        <v>25.97057914733887</v>
+        <v>25.9705867767334</v>
       </c>
       <c r="G133" t="n">
         <v>439500</v>
@@ -5074,7 +5074,7 @@
         <v>48.13999938964844</v>
       </c>
       <c r="F134" t="n">
-        <v>26.92127418518066</v>
+        <v>26.9212760925293</v>
       </c>
       <c r="G134" t="n">
         <v>310350</v>
@@ -5109,7 +5109,7 @@
         <v>49.70000076293945</v>
       </c>
       <c r="F135" t="n">
-        <v>27.79367256164551</v>
+        <v>27.79367065429688</v>
       </c>
       <c r="G135" t="n">
         <v>116300</v>
@@ -5144,7 +5144,7 @@
         <v>50.7599983215332</v>
       </c>
       <c r="F136" t="n">
-        <v>28.38645362854004</v>
+        <v>28.38644981384277</v>
       </c>
       <c r="G136" t="n">
         <v>432300</v>
@@ -5179,7 +5179,7 @@
         <v>51.09999847412109</v>
       </c>
       <c r="F137" t="n">
-        <v>28.57659339904785</v>
+        <v>28.57658004760742</v>
       </c>
       <c r="G137" t="n">
         <v>101900</v>
@@ -5214,7 +5214,7 @@
         <v>49.38000106811523</v>
       </c>
       <c r="F138" t="n">
-        <v>27.61471748352051</v>
+        <v>27.61471939086914</v>
       </c>
       <c r="G138" t="n">
         <v>262350</v>
@@ -5249,7 +5249,7 @@
         <v>49.47999954223633</v>
       </c>
       <c r="F139" t="n">
-        <v>27.67063903808594</v>
+        <v>27.6706428527832</v>
       </c>
       <c r="G139" t="n">
         <v>270800</v>
@@ -5284,7 +5284,7 @@
         <v>51.45999908447266</v>
       </c>
       <c r="F140" t="n">
-        <v>28.77791023254395</v>
+        <v>28.77790832519531</v>
       </c>
       <c r="G140" t="n">
         <v>154400</v>
@@ -5319,7 +5319,7 @@
         <v>54.43999862670898</v>
       </c>
       <c r="F141" t="n">
-        <v>30.44441413879395</v>
+        <v>30.44441604614258</v>
       </c>
       <c r="G141" t="n">
         <v>148250</v>
@@ -5354,7 +5354,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="F142" t="n">
-        <v>28.65488433837891</v>
+        <v>28.65488815307617</v>
       </c>
       <c r="G142" t="n">
         <v>303800</v>
@@ -5389,7 +5389,7 @@
         <v>48.15999984741211</v>
       </c>
       <c r="F143" t="n">
-        <v>27.87113571166992</v>
+        <v>27.87112808227539</v>
       </c>
       <c r="G143" t="n">
         <v>195750</v>
@@ -5424,7 +5424,7 @@
         <v>44.31999969482422</v>
       </c>
       <c r="F144" t="n">
-        <v>25.64884948730469</v>
+        <v>25.64884757995605</v>
       </c>
       <c r="G144" t="n">
         <v>324750</v>
@@ -5459,7 +5459,7 @@
         <v>43.79999923706055</v>
       </c>
       <c r="F145" t="n">
-        <v>25.34791374206543</v>
+        <v>25.3479175567627</v>
       </c>
       <c r="G145" t="n">
         <v>367050</v>
@@ -5494,7 +5494,7 @@
         <v>43.11999893188477</v>
       </c>
       <c r="F146" t="n">
-        <v>24.95438766479492</v>
+        <v>24.95438385009766</v>
       </c>
       <c r="G146" t="n">
         <v>296600</v>
@@ -5529,7 +5529,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F147" t="n">
-        <v>26.4359130859375</v>
+        <v>26.43591117858887</v>
       </c>
       <c r="G147" t="n">
         <v>869650</v>
@@ -5564,7 +5564,7 @@
         <v>45.58000183105469</v>
       </c>
       <c r="F148" t="n">
-        <v>26.3780403137207</v>
+        <v>26.37803649902344</v>
       </c>
       <c r="G148" t="n">
         <v>132300</v>
@@ -5634,7 +5634,7 @@
         <v>39.7400016784668</v>
       </c>
       <c r="F150" t="n">
-        <v>23.52326774597168</v>
+        <v>23.52327156066895</v>
       </c>
       <c r="G150" t="n">
         <v>174550</v>
@@ -5669,7 +5669,7 @@
         <v>38.40000152587891</v>
       </c>
       <c r="F151" t="n">
-        <v>22.7300853729248</v>
+        <v>22.73008346557617</v>
       </c>
       <c r="G151" t="n">
         <v>164600</v>
@@ -5704,7 +5704,7 @@
         <v>33.29999923706055</v>
       </c>
       <c r="F152" t="n">
-        <v>19.71124267578125</v>
+        <v>19.71124649047852</v>
       </c>
       <c r="G152" t="n">
         <v>978900</v>
@@ -5739,7 +5739,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F153" t="n">
-        <v>15.81635093688965</v>
+        <v>15.81635475158691</v>
       </c>
       <c r="G153" t="n">
         <v>476550</v>
@@ -5774,7 +5774,7 @@
         <v>25</v>
       </c>
       <c r="F154" t="n">
-        <v>14.7982292175293</v>
+        <v>14.79823207855225</v>
       </c>
       <c r="G154" t="n">
         <v>252900</v>
@@ -5809,7 +5809,7 @@
         <v>24.5</v>
       </c>
       <c r="F155" t="n">
-        <v>14.92038440704346</v>
+        <v>14.92038536071777</v>
       </c>
       <c r="G155" t="n">
         <v>508200</v>
@@ -5879,7 +5879,7 @@
         <v>20.04000091552734</v>
       </c>
       <c r="F157" t="n">
-        <v>12.20426559448242</v>
+        <v>12.20426750183105</v>
       </c>
       <c r="G157" t="n">
         <v>254800</v>
@@ -5914,7 +5914,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F158" t="n">
-        <v>12.7645435333252</v>
+        <v>12.76454067230225</v>
       </c>
       <c r="G158" t="n">
         <v>393250</v>
@@ -5984,7 +5984,7 @@
         <v>27.45999908447266</v>
       </c>
       <c r="F160" t="n">
-        <v>16.72301483154297</v>
+        <v>16.72301292419434</v>
       </c>
       <c r="G160" t="n">
         <v>513600</v>
@@ -6054,7 +6054,7 @@
         <v>28.65999984741211</v>
       </c>
       <c r="F162" t="n">
-        <v>17.77075576782227</v>
+        <v>17.77075958251953</v>
       </c>
       <c r="G162" t="n">
         <v>275700</v>
@@ -6089,7 +6089,7 @@
         <v>29.89999961853027</v>
       </c>
       <c r="F163" t="n">
-        <v>18.53961753845215</v>
+        <v>18.53962326049805</v>
       </c>
       <c r="G163" t="n">
         <v>346650</v>
@@ -6124,7 +6124,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F164" t="n">
-        <v>19.23408699035645</v>
+        <v>19.23408317565918</v>
       </c>
       <c r="G164" t="n">
         <v>947600</v>
@@ -6159,7 +6159,7 @@
         <v>30.97999954223633</v>
       </c>
       <c r="F165" t="n">
-        <v>19.20928192138672</v>
+        <v>19.20928573608398</v>
       </c>
       <c r="G165" t="n">
         <v>476950</v>
@@ -6229,7 +6229,7 @@
         <v>32.40000152587891</v>
       </c>
       <c r="F167" t="n">
-        <v>20.32476997375488</v>
+        <v>20.32476806640625</v>
       </c>
       <c r="G167" t="n">
         <v>119550</v>
@@ -6264,7 +6264,7 @@
         <v>30.86000061035156</v>
       </c>
       <c r="F168" t="n">
-        <v>19.35871124267578</v>
+        <v>19.35871315002441</v>
       </c>
       <c r="G168" t="n">
         <v>693950</v>
@@ -6369,7 +6369,7 @@
         <v>31.84000015258789</v>
       </c>
       <c r="F171" t="n">
-        <v>19.97347259521484</v>
+        <v>19.97347450256348</v>
       </c>
       <c r="G171" t="n">
         <v>698350</v>
@@ -6439,7 +6439,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F173" t="n">
-        <v>17.15884780883789</v>
+        <v>17.15884208679199</v>
       </c>
       <c r="G173" t="n">
         <v>384300</v>
@@ -6509,7 +6509,7 @@
         <v>29.92000007629395</v>
       </c>
       <c r="F175" t="n">
-        <v>19.09943008422852</v>
+        <v>19.09942626953125</v>
       </c>
       <c r="G175" t="n">
         <v>1858750</v>
@@ -6544,7 +6544,7 @@
         <v>32.72000122070312</v>
       </c>
       <c r="F176" t="n">
-        <v>20.88680839538574</v>
+        <v>20.88681030273438</v>
       </c>
       <c r="G176" t="n">
         <v>619100</v>
@@ -6579,7 +6579,7 @@
         <v>34.09999847412109</v>
       </c>
       <c r="F177" t="n">
-        <v>21.76773262023926</v>
+        <v>21.76772880554199</v>
       </c>
       <c r="G177" t="n">
         <v>616450</v>
@@ -6614,7 +6614,7 @@
         <v>32.31999969482422</v>
       </c>
       <c r="F178" t="n">
-        <v>20.63147354125977</v>
+        <v>20.6314697265625</v>
       </c>
       <c r="G178" t="n">
         <v>1640650</v>
@@ -6649,7 +6649,7 @@
         <v>34.7400016784668</v>
       </c>
       <c r="F179" t="n">
-        <v>22.39988899230957</v>
+        <v>22.3998851776123</v>
       </c>
       <c r="G179" t="n">
         <v>463150</v>
@@ -6684,7 +6684,7 @@
         <v>35.11999893188477</v>
       </c>
       <c r="F180" t="n">
-        <v>22.6449031829834</v>
+        <v>22.64490127563477</v>
       </c>
       <c r="G180" t="n">
         <v>1781900</v>
@@ -6719,7 +6719,7 @@
         <v>36.72000122070312</v>
       </c>
       <c r="F181" t="n">
-        <v>23.67656707763672</v>
+        <v>23.67656326293945</v>
       </c>
       <c r="G181" t="n">
         <v>597950</v>
@@ -6754,7 +6754,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F182" t="n">
-        <v>23.09625434875488</v>
+        <v>23.09626197814941</v>
       </c>
       <c r="G182" t="n">
         <v>878400</v>
@@ -6789,7 +6789,7 @@
         <v>38.22000122070312</v>
       </c>
       <c r="F183" t="n">
-        <v>24.64374351501465</v>
+        <v>24.64374732971191</v>
       </c>
       <c r="G183" t="n">
         <v>659150</v>
@@ -6824,7 +6824,7 @@
         <v>37.31999969482422</v>
       </c>
       <c r="F184" t="n">
-        <v>24.06343078613281</v>
+        <v>24.06344223022461</v>
       </c>
       <c r="G184" t="n">
         <v>667900</v>
@@ -6859,7 +6859,7 @@
         <v>35.61999893188477</v>
       </c>
       <c r="F185" t="n">
-        <v>23.3641185760498</v>
+        <v>23.36411666870117</v>
       </c>
       <c r="G185" t="n">
         <v>601050</v>
@@ -6894,7 +6894,7 @@
         <v>35.47999954223633</v>
       </c>
       <c r="F186" t="n">
-        <v>23.27228927612305</v>
+        <v>23.27228736877441</v>
       </c>
       <c r="G186" t="n">
         <v>504500</v>
@@ -6929,7 +6929,7 @@
         <v>32.7599983215332</v>
       </c>
       <c r="F187" t="n">
-        <v>21.4881706237793</v>
+        <v>21.48816871643066</v>
       </c>
       <c r="G187" t="n">
         <v>530650</v>
@@ -6964,7 +6964,7 @@
         <v>29.54000091552734</v>
       </c>
       <c r="F188" t="n">
-        <v>19.37608337402344</v>
+        <v>19.37608909606934</v>
       </c>
       <c r="G188" t="n">
         <v>821500</v>
@@ -6999,7 +6999,7 @@
         <v>33.36000061035156</v>
       </c>
       <c r="F189" t="n">
-        <v>21.8817253112793</v>
+        <v>21.88172340393066</v>
       </c>
       <c r="G189" t="n">
         <v>1351500</v>
@@ -7104,7 +7104,7 @@
         <v>33.36000061035156</v>
       </c>
       <c r="F192" t="n">
-        <v>22.20933532714844</v>
+        <v>22.20933151245117</v>
       </c>
       <c r="G192" t="n">
         <v>2113550</v>
@@ -7139,7 +7139,7 @@
         <v>35.06000137329102</v>
       </c>
       <c r="F193" t="n">
-        <v>23.34111022949219</v>
+        <v>23.34110450744629</v>
       </c>
       <c r="G193" t="n">
         <v>830050</v>
@@ -7174,7 +7174,7 @@
         <v>34.59999847412109</v>
       </c>
       <c r="F194" t="n">
-        <v>23.03485870361328</v>
+        <v>23.03486061096191</v>
       </c>
       <c r="G194" t="n">
         <v>725000</v>
@@ -7209,7 +7209,7 @@
         <v>35.09999847412109</v>
       </c>
       <c r="F195" t="n">
-        <v>23.36773109436035</v>
+        <v>23.36773490905762</v>
       </c>
       <c r="G195" t="n">
         <v>578850</v>
@@ -7244,7 +7244,7 @@
         <v>31.10000038146973</v>
       </c>
       <c r="F196" t="n">
-        <v>20.70474815368652</v>
+        <v>20.70474624633789</v>
       </c>
       <c r="G196" t="n">
         <v>998250</v>
@@ -7279,7 +7279,7 @@
         <v>32.58000183105469</v>
       </c>
       <c r="F197" t="n">
-        <v>22.20408630371094</v>
+        <v>22.2040843963623</v>
       </c>
       <c r="G197" t="n">
         <v>481100</v>
@@ -7314,7 +7314,7 @@
         <v>32.86000061035156</v>
       </c>
       <c r="F198" t="n">
-        <v>22.3949146270752</v>
+        <v>22.3949089050293</v>
       </c>
       <c r="G198" t="n">
         <v>811000</v>
@@ -7349,7 +7349,7 @@
         <v>33.93999862670898</v>
       </c>
       <c r="F199" t="n">
-        <v>23.13096046447754</v>
+        <v>23.13095664978027</v>
       </c>
       <c r="G199" t="n">
         <v>721750</v>
@@ -7384,7 +7384,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="F200" t="n">
-        <v>23.71706962585449</v>
+        <v>23.71707153320312</v>
       </c>
       <c r="G200" t="n">
         <v>542300</v>
@@ -7419,7 +7419,7 @@
         <v>34.95999908447266</v>
       </c>
       <c r="F201" t="n">
-        <v>23.82611656188965</v>
+        <v>23.82611465454102</v>
       </c>
       <c r="G201" t="n">
         <v>736200</v>
@@ -7454,7 +7454,7 @@
         <v>35.36000061035156</v>
       </c>
       <c r="F202" t="n">
-        <v>24.09872817993164</v>
+        <v>24.09872627258301</v>
       </c>
       <c r="G202" t="n">
         <v>345800</v>
@@ -7489,7 +7489,7 @@
         <v>35.88000106811523</v>
       </c>
       <c r="F203" t="n">
-        <v>24.80093765258789</v>
+        <v>24.80093955993652</v>
       </c>
       <c r="G203" t="n">
         <v>451900</v>
@@ -7524,7 +7524,7 @@
         <v>36.93999862670898</v>
       </c>
       <c r="F204" t="n">
-        <v>25.53362655639648</v>
+        <v>25.53362846374512</v>
       </c>
       <c r="G204" t="n">
         <v>618850</v>
@@ -7559,7 +7559,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F205" t="n">
-        <v>24.8424072265625</v>
+        <v>24.84240913391113</v>
       </c>
       <c r="G205" t="n">
         <v>1226300</v>
@@ -7594,7 +7594,7 @@
         <v>36.54000091552734</v>
       </c>
       <c r="F206" t="n">
-        <v>25.25713920593262</v>
+        <v>25.25714302062988</v>
       </c>
       <c r="G206" t="n">
         <v>381850</v>
@@ -7629,7 +7629,7 @@
         <v>37.58000183105469</v>
       </c>
       <c r="F207" t="n">
-        <v>25.97601127624512</v>
+        <v>25.97600936889648</v>
       </c>
       <c r="G207" t="n">
         <v>666150</v>
@@ -7699,7 +7699,7 @@
         <v>35.31999969482422</v>
       </c>
       <c r="F209" t="n">
-        <v>24.77568435668945</v>
+        <v>24.77567863464355</v>
       </c>
       <c r="G209" t="n">
         <v>1471100</v>
@@ -7734,7 +7734,7 @@
         <v>37.58000183105469</v>
       </c>
       <c r="F210" t="n">
-        <v>26.36099243164062</v>
+        <v>26.36098861694336</v>
       </c>
       <c r="G210" t="n">
         <v>2214350</v>
@@ -7769,7 +7769,7 @@
         <v>37.29999923706055</v>
       </c>
       <c r="F211" t="n">
-        <v>26.16457939147949</v>
+        <v>26.16458129882812</v>
       </c>
       <c r="G211" t="n">
         <v>394600</v>
@@ -7804,7 +7804,7 @@
         <v>39.2400016784668</v>
       </c>
       <c r="F212" t="n">
-        <v>27.52542495727539</v>
+        <v>27.52541732788086</v>
       </c>
       <c r="G212" t="n">
         <v>1550100</v>
@@ -7874,7 +7874,7 @@
         <v>41.02000045776367</v>
       </c>
       <c r="F214" t="n">
-        <v>28.77402496337891</v>
+        <v>28.77402305603027</v>
       </c>
       <c r="G214" t="n">
         <v>598200</v>
@@ -7909,7 +7909,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F215" t="n">
-        <v>29.64527320861816</v>
+        <v>29.64528656005859</v>
       </c>
       <c r="G215" t="n">
         <v>760950</v>
@@ -7944,7 +7944,7 @@
         <v>39.81999969482422</v>
       </c>
       <c r="F216" t="n">
-        <v>28.26808738708496</v>
+        <v>28.2680778503418</v>
       </c>
       <c r="G216" t="n">
         <v>1779300</v>
@@ -7979,7 +7979,7 @@
         <v>42.52000045776367</v>
       </c>
       <c r="F217" t="n">
-        <v>30.18479919433594</v>
+        <v>30.1848030090332</v>
       </c>
       <c r="G217" t="n">
         <v>1331350</v>
@@ -8014,7 +8014,7 @@
         <v>41.18000030517578</v>
       </c>
       <c r="F218" t="n">
-        <v>29.23354148864746</v>
+        <v>29.23354339599609</v>
       </c>
       <c r="G218" t="n">
         <v>1516600</v>
@@ -8084,7 +8084,7 @@
         <v>43.45999908447266</v>
       </c>
       <c r="F220" t="n">
-        <v>30.85210800170898</v>
+        <v>30.85210609436035</v>
       </c>
       <c r="G220" t="n">
         <v>2240250</v>
@@ -8119,7 +8119,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F221" t="n">
-        <v>31.10104751586914</v>
+        <v>31.10104942321777</v>
       </c>
       <c r="G221" t="n">
         <v>918150</v>
@@ -8154,7 +8154,7 @@
         <v>40.7599983215332</v>
       </c>
       <c r="F222" t="n">
-        <v>30.35628509521484</v>
+        <v>30.35628700256348</v>
       </c>
       <c r="G222" t="n">
         <v>4503250</v>
@@ -8189,7 +8189,7 @@
         <v>41.08000183105469</v>
       </c>
       <c r="F223" t="n">
-        <v>30.59461212158203</v>
+        <v>30.5946159362793</v>
       </c>
       <c r="G223" t="n">
         <v>1421850</v>
@@ -8224,7 +8224,7 @@
         <v>38.7599983215332</v>
       </c>
       <c r="F224" t="n">
-        <v>28.86677360534668</v>
+        <v>28.86677932739258</v>
       </c>
       <c r="G224" t="n">
         <v>3795400</v>
@@ -8259,7 +8259,7 @@
         <v>38.02000045776367</v>
       </c>
       <c r="F225" t="n">
-        <v>28.3156566619873</v>
+        <v>28.31566047668457</v>
       </c>
       <c r="G225" t="n">
         <v>1104950</v>
@@ -8294,7 +8294,7 @@
         <v>38.06000137329102</v>
       </c>
       <c r="F226" t="n">
-        <v>28.3454418182373</v>
+        <v>28.34544563293457</v>
       </c>
       <c r="G226" t="n">
         <v>443200</v>
@@ -8364,7 +8364,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F228" t="n">
-        <v>27.40793609619141</v>
+        <v>27.40793991088867</v>
       </c>
       <c r="G228" t="n">
         <v>1316450</v>
@@ -8399,7 +8399,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F229" t="n">
-        <v>29.01837730407715</v>
+        <v>29.01838111877441</v>
       </c>
       <c r="G229" t="n">
         <v>827750</v>
@@ -8434,7 +8434,7 @@
         <v>36.02000045776367</v>
       </c>
       <c r="F230" t="n">
-        <v>27.36236190795898</v>
+        <v>27.36235618591309</v>
       </c>
       <c r="G230" t="n">
         <v>1308000</v>
@@ -8469,7 +8469,7 @@
         <v>38.41999816894531</v>
       </c>
       <c r="F231" t="n">
-        <v>29.18550491333008</v>
+        <v>29.18549919128418</v>
       </c>
       <c r="G231" t="n">
         <v>1329500</v>
@@ -8504,7 +8504,7 @@
         <v>38.65999984741211</v>
       </c>
       <c r="F232" t="n">
-        <v>29.36781311035156</v>
+        <v>29.36781883239746</v>
       </c>
       <c r="G232" t="n">
         <v>1405650</v>
@@ -8539,7 +8539,7 @@
         <v>36.5</v>
       </c>
       <c r="F233" t="n">
-        <v>28.23249626159668</v>
+        <v>28.23249244689941</v>
       </c>
       <c r="G233" t="n">
         <v>1430600</v>
@@ -8574,7 +8574,7 @@
         <v>37.08000183105469</v>
       </c>
       <c r="F234" t="n">
-        <v>28.68111801147461</v>
+        <v>28.68112182617188</v>
       </c>
       <c r="G234" t="n">
         <v>807750</v>
@@ -8644,7 +8644,7 @@
         <v>32.77999877929688</v>
       </c>
       <c r="F236" t="n">
-        <v>25.35509872436523</v>
+        <v>25.3550968170166</v>
       </c>
       <c r="G236" t="n">
         <v>1649200</v>
@@ -8679,7 +8679,7 @@
         <v>34.93999862670898</v>
       </c>
       <c r="F237" t="n">
-        <v>27.02583503723145</v>
+        <v>27.02583885192871</v>
       </c>
       <c r="G237" t="n">
         <v>838850</v>
@@ -8714,7 +8714,7 @@
         <v>34.36000061035156</v>
       </c>
       <c r="F238" t="n">
-        <v>26.57721519470215</v>
+        <v>26.57722091674805</v>
       </c>
       <c r="G238" t="n">
         <v>1056950</v>
@@ -8749,7 +8749,7 @@
         <v>32.27999877929688</v>
       </c>
       <c r="F239" t="n">
-        <v>25.47012901306152</v>
+        <v>25.47013092041016</v>
       </c>
       <c r="G239" t="n">
         <v>1025950</v>
@@ -8819,7 +8819,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F241" t="n">
-        <v>23.48176002502441</v>
+        <v>23.48175430297852</v>
       </c>
       <c r="G241" t="n">
         <v>1364250</v>
@@ -8854,7 +8854,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F242" t="n">
-        <v>24.74421691894531</v>
+        <v>24.74421882629395</v>
       </c>
       <c r="G242" t="n">
         <v>1219050</v>
@@ -8889,7 +8889,7 @@
         <v>32.61999893188477</v>
       </c>
       <c r="F243" t="n">
-        <v>25.73840522766113</v>
+        <v>25.7384033203125</v>
       </c>
       <c r="G243" t="n">
         <v>1360200</v>
@@ -8924,7 +8924,7 @@
         <v>32.2400016784668</v>
       </c>
       <c r="F244" t="n">
-        <v>25.43857192993164</v>
+        <v>25.43857002258301</v>
       </c>
       <c r="G244" t="n">
         <v>2366600</v>
@@ -8994,7 +8994,7 @@
         <v>31.20000076293945</v>
       </c>
       <c r="F246" t="n">
-        <v>25.23065185546875</v>
+        <v>25.23064994812012</v>
       </c>
       <c r="G246" t="n">
         <v>1756050</v>
@@ -9029,7 +9029,7 @@
         <v>31.54000091552734</v>
       </c>
       <c r="F247" t="n">
-        <v>25.50559616088867</v>
+        <v>25.5055980682373</v>
       </c>
       <c r="G247" t="n">
         <v>883900</v>
@@ -9064,7 +9064,7 @@
         <v>31.68000030517578</v>
       </c>
       <c r="F248" t="n">
-        <v>25.61881637573242</v>
+        <v>25.61881446838379</v>
       </c>
       <c r="G248" t="n">
         <v>1708500</v>
@@ -9099,7 +9099,7 @@
         <v>30</v>
       </c>
       <c r="F249" t="n">
-        <v>24.2602367401123</v>
+        <v>24.26023864746094</v>
       </c>
       <c r="G249" t="n">
         <v>2849700</v>
@@ -9134,7 +9134,7 @@
         <v>30.05999946594238</v>
       </c>
       <c r="F250" t="n">
-        <v>24.30875968933105</v>
+        <v>24.30876159667969</v>
       </c>
       <c r="G250" t="n">
         <v>2239200</v>
@@ -9169,7 +9169,7 @@
         <v>30.69000053405762</v>
       </c>
       <c r="F251" t="n">
-        <v>25.1618595123291</v>
+        <v>25.16186332702637</v>
       </c>
       <c r="G251" t="n">
         <v>5782700</v>
@@ -9239,7 +9239,7 @@
         <v>31.90999984741211</v>
       </c>
       <c r="F253" t="n">
-        <v>26.16210556030273</v>
+        <v>26.1621036529541</v>
       </c>
       <c r="G253" t="n">
         <v>1793700</v>
@@ -9309,7 +9309,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F255" t="n">
-        <v>27.13775062561035</v>
+        <v>27.13774871826172</v>
       </c>
       <c r="G255" t="n">
         <v>1657900</v>
@@ -9379,7 +9379,7 @@
         <v>33.33000183105469</v>
       </c>
       <c r="F257" t="n">
-        <v>27.92904853820801</v>
+        <v>27.92905044555664</v>
       </c>
       <c r="G257" t="n">
         <v>1258700</v>
@@ -9414,7 +9414,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F258" t="n">
-        <v>28.59103393554688</v>
+        <v>28.59103584289551</v>
       </c>
       <c r="G258" t="n">
         <v>1471700</v>
@@ -9449,7 +9449,7 @@
         <v>33.84000015258789</v>
       </c>
       <c r="F259" t="n">
-        <v>28.35640335083008</v>
+        <v>28.35640907287598</v>
       </c>
       <c r="G259" t="n">
         <v>1861100</v>
@@ -9484,7 +9484,7 @@
         <v>34.84999847412109</v>
       </c>
       <c r="F260" t="n">
-        <v>29.20273780822754</v>
+        <v>29.20273971557617</v>
       </c>
       <c r="G260" t="n">
         <v>1773700</v>
@@ -9519,7 +9519,7 @@
         <v>35.06000137329102</v>
       </c>
       <c r="F261" t="n">
-        <v>29.37870979309082</v>
+        <v>29.37871170043945</v>
       </c>
       <c r="G261" t="n">
         <v>988800</v>
@@ -9554,7 +9554,7 @@
         <v>35.02000045776367</v>
       </c>
       <c r="F262" t="n">
-        <v>29.34519004821777</v>
+        <v>29.34519386291504</v>
       </c>
       <c r="G262" t="n">
         <v>2080300</v>
@@ -9589,7 +9589,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F263" t="n">
-        <v>30.58162689208984</v>
+        <v>30.58162879943848</v>
       </c>
       <c r="G263" t="n">
         <v>4697900</v>
@@ -9624,7 +9624,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F264" t="n">
-        <v>31.72566604614258</v>
+        <v>31.72566032409668</v>
       </c>
       <c r="G264" t="n">
         <v>2988200</v>
@@ -9659,7 +9659,7 @@
         <v>34.66999816894531</v>
       </c>
       <c r="F265" t="n">
-        <v>29.59980583190918</v>
+        <v>29.59980773925781</v>
       </c>
       <c r="G265" t="n">
         <v>1964100</v>
@@ -9694,7 +9694,7 @@
         <v>34.75</v>
       </c>
       <c r="F266" t="n">
-        <v>29.6681079864502</v>
+        <v>29.66811180114746</v>
       </c>
       <c r="G266" t="n">
         <v>2071900</v>
@@ -9729,7 +9729,7 @@
         <v>36.25</v>
       </c>
       <c r="F267" t="n">
-        <v>30.9487476348877</v>
+        <v>30.94874572753906</v>
       </c>
       <c r="G267" t="n">
         <v>1403200</v>
@@ -9764,7 +9764,7 @@
         <v>36.02999877929688</v>
       </c>
       <c r="F268" t="n">
-        <v>30.76092147827148</v>
+        <v>30.76091766357422</v>
       </c>
       <c r="G268" t="n">
         <v>1742700</v>
@@ -9799,7 +9799,7 @@
         <v>34.77999877929688</v>
       </c>
       <c r="F269" t="n">
-        <v>30.39541244506836</v>
+        <v>30.39541435241699</v>
       </c>
       <c r="G269" t="n">
         <v>2352000</v>
@@ -9834,7 +9834,7 @@
         <v>35.11000061035156</v>
       </c>
       <c r="F270" t="n">
-        <v>30.68380928039551</v>
+        <v>30.68381309509277</v>
       </c>
       <c r="G270" t="n">
         <v>2207600</v>
@@ -9869,7 +9869,7 @@
         <v>33.56999969482422</v>
       </c>
       <c r="F271" t="n">
-        <v>29.33795356750488</v>
+        <v>29.33795738220215</v>
       </c>
       <c r="G271" t="n">
         <v>1014800</v>
@@ -9904,7 +9904,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F272" t="n">
-        <v>29.8186149597168</v>
+        <v>29.81861877441406</v>
       </c>
       <c r="G272" t="n">
         <v>1776300</v>
@@ -9974,7 +9974,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F274" t="n">
-        <v>27.46773719787598</v>
+        <v>27.46773529052734</v>
       </c>
       <c r="G274" t="n">
         <v>1139000</v>
@@ -10079,7 +10079,7 @@
         <v>32.56999969482422</v>
       </c>
       <c r="F277" t="n">
-        <v>29.08469009399414</v>
+        <v>29.08468818664551</v>
       </c>
       <c r="G277" t="n">
         <v>2036900</v>
@@ -10114,7 +10114,7 @@
         <v>33.0099983215332</v>
       </c>
       <c r="F278" t="n">
-        <v>29.47760200500488</v>
+        <v>29.47760391235352</v>
       </c>
       <c r="G278" t="n">
         <v>4738600</v>
@@ -10149,7 +10149,7 @@
         <v>33.7599983215332</v>
       </c>
       <c r="F279" t="n">
-        <v>30.1473445892334</v>
+        <v>30.14734649658203</v>
       </c>
       <c r="G279" t="n">
         <v>2585500</v>
@@ -10219,7 +10219,7 @@
         <v>32.31999969482422</v>
       </c>
       <c r="F281" t="n">
-        <v>29.59960746765137</v>
+        <v>29.59961128234863</v>
       </c>
       <c r="G281" t="n">
         <v>1530300</v>
@@ -10254,7 +10254,7 @@
         <v>31.54000091552734</v>
       </c>
       <c r="F282" t="n">
-        <v>28.88526344299316</v>
+        <v>28.88526153564453</v>
       </c>
       <c r="G282" t="n">
         <v>3314500</v>
@@ -10359,7 +10359,7 @@
         <v>32.52999877929688</v>
       </c>
       <c r="F285" t="n">
-        <v>29.79193115234375</v>
+        <v>29.79192924499512</v>
       </c>
       <c r="G285" t="n">
         <v>2165400</v>
@@ -10429,7 +10429,7 @@
         <v>34.09999847412109</v>
       </c>
       <c r="F287" t="n">
-        <v>31.78817558288574</v>
+        <v>31.78817367553711</v>
       </c>
       <c r="G287" t="n">
         <v>2009200</v>
@@ -10464,7 +10464,7 @@
         <v>32.63999938964844</v>
       </c>
       <c r="F288" t="n">
-        <v>30.42715644836426</v>
+        <v>30.42715835571289</v>
       </c>
       <c r="G288" t="n">
         <v>3262700</v>
@@ -10534,7 +10534,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F290" t="n">
-        <v>22.26104354858398</v>
+        <v>22.26104545593262</v>
       </c>
       <c r="G290" t="n">
         <v>6584100</v>
@@ -10604,7 +10604,7 @@
         <v>25.72999954223633</v>
       </c>
       <c r="F292" t="n">
-        <v>23.98562049865723</v>
+        <v>23.98562431335449</v>
       </c>
       <c r="G292" t="n">
         <v>3578300</v>
@@ -10674,7 +10674,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F294" t="n">
-        <v>24.54149627685547</v>
+        <v>24.54149436950684</v>
       </c>
       <c r="G294" t="n">
         <v>3622400</v>
@@ -10814,7 +10814,7 @@
         <v>28.26000022888184</v>
       </c>
       <c r="F298" t="n">
-        <v>26.74672698974609</v>
+        <v>26.74672889709473</v>
       </c>
       <c r="G298" t="n">
         <v>7907400</v>
@@ -10954,7 +10954,7 @@
         <v>31.30999946594238</v>
       </c>
       <c r="F302" t="n">
-        <v>29.97221374511719</v>
+        <v>29.97221183776855</v>
       </c>
       <c r="G302" t="n">
         <v>4579300</v>
@@ -10989,7 +10989,7 @@
         <v>32.52999877929688</v>
       </c>
       <c r="F303" t="n">
-        <v>31.14008522033691</v>
+        <v>31.14008331298828</v>
       </c>
       <c r="G303" t="n">
         <v>3953800</v>
@@ -11295,31 +11295,31 @@
         <v>33.68999862670898</v>
       </c>
       <c r="C312" t="n">
-        <v>33.88999938964844</v>
+        <v>33.89500045776367</v>
       </c>
       <c r="D312" t="n">
         <v>33.70500183105469</v>
       </c>
       <c r="E312" t="n">
-        <v>33.86999893188477</v>
+        <v>33.8650016784668</v>
       </c>
       <c r="F312" t="n">
-        <v>33.86999893188477</v>
+        <v>33.8650016784668</v>
       </c>
       <c r="G312" t="n">
-        <v>1297656</v>
+        <v>1659827</v>
       </c>
       <c r="H312" t="n">
-        <v>0.02202774760654802</v>
+        <v>0.02187695540648749</v>
       </c>
       <c r="I312" t="n">
-        <v>0.04471607989485848</v>
+        <v>0.0447154900438248</v>
       </c>
       <c r="J312" t="n">
-        <v>0.159137567686563</v>
+        <v>0.1589665460049956</v>
       </c>
       <c r="K312" t="n">
-        <v>0.159137567686563</v>
+        <v>0.1589665460049956</v>
       </c>
     </row>
   </sheetData>
